--- a/images/intro-carousel/BUDGET 2021 GPSPM.xlsx
+++ b/images/intro-carousel/BUDGET 2021 GPSPM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMBRI OLLO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/assetmanagement/images/intro-carousel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Evolut°Bud2011_2017" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'EXECUTION. 2021 '!$A$1:$M$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'EXECUTION. 2022'!$A$1:$M$81</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="118">
   <si>
     <t>Transferts aux associations et autres organismes non lucratifs</t>
   </si>
@@ -401,13 +401,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -772,10 +772,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -804,7 +804,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -825,7 +825,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -858,7 +858,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -877,10 +877,10 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -942,7 +942,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -954,7 +954,7 @@
     <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,7 +1079,7 @@
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,7 +1148,7 @@
     <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,7 +1172,7 @@
     <xf numFmtId="3" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="9" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,7 +1238,7 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,7 +1277,7 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,7 +1292,7 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1310,7 +1310,7 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,6 +1328,12 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="9" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1355,10 +1361,10 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,10 +1391,10 @@
     <xf numFmtId="1" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1397,17 +1403,11 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1447,7 +1447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1546,7 +1552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvPr id="3" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1749,7 +1761,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr="C:\Users\KAMBRI\Desktop\Budget 2015\Logo à diffuser\LOGO DAFP2.jpg"/>
+        <xdr:cNvPr id="4" name="Image 5" descr="C:\Users\KAMBRI\Desktop\Budget 2015\Logo à diffuser\LOGO DAFP2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1817,7 +1835,13 @@
     <xdr:ext cx="1152525" cy="0"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr="C:\Users\KAMBRI\Desktop\logo daaf.jpg"/>
+        <xdr:cNvPr id="2" name="Image 3" descr="C:\Users\KAMBRI\Desktop\logo daaf.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1885,7 +1909,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1986,7 +2016,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 1"/>
+        <xdr:cNvPr id="4" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2199,7 +2235,13 @@
     <xdr:ext cx="1152525" cy="0"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr="C:\Users\KAMBRI\Desktop\logo daaf.jpg"/>
+        <xdr:cNvPr id="2" name="Image 3" descr="C:\Users\KAMBRI\Desktop\logo daaf.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2267,7 +2309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2368,7 +2416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 1"/>
+        <xdr:cNvPr id="4" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2840,493 +2894,493 @@
       <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="124"/>
-    <col min="2" max="2" width="44.5703125" style="125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="126" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="124"/>
+    <col min="2" max="2" width="44.5" style="125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="126" customWidth="1"/>
     <col min="4" max="4" width="23" style="126" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="126" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="126" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="126" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="126" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="126" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="108" customWidth="1"/>
-    <col min="11" max="257" width="11.42578125" style="88"/>
-    <col min="258" max="258" width="44.5703125" style="88" customWidth="1"/>
-    <col min="259" max="260" width="10.85546875" style="88" customWidth="1"/>
-    <col min="261" max="261" width="10.42578125" style="88" customWidth="1"/>
-    <col min="262" max="262" width="11.28515625" style="88" customWidth="1"/>
-    <col min="263" max="265" width="11.5703125" style="88" customWidth="1"/>
-    <col min="266" max="266" width="18.5703125" style="88" customWidth="1"/>
-    <col min="267" max="513" width="11.42578125" style="88"/>
-    <col min="514" max="514" width="44.5703125" style="88" customWidth="1"/>
-    <col min="515" max="516" width="10.85546875" style="88" customWidth="1"/>
-    <col min="517" max="517" width="10.42578125" style="88" customWidth="1"/>
-    <col min="518" max="518" width="11.28515625" style="88" customWidth="1"/>
-    <col min="519" max="521" width="11.5703125" style="88" customWidth="1"/>
-    <col min="522" max="522" width="18.5703125" style="88" customWidth="1"/>
-    <col min="523" max="769" width="11.42578125" style="88"/>
-    <col min="770" max="770" width="44.5703125" style="88" customWidth="1"/>
-    <col min="771" max="772" width="10.85546875" style="88" customWidth="1"/>
-    <col min="773" max="773" width="10.42578125" style="88" customWidth="1"/>
-    <col min="774" max="774" width="11.28515625" style="88" customWidth="1"/>
-    <col min="775" max="777" width="11.5703125" style="88" customWidth="1"/>
-    <col min="778" max="778" width="18.5703125" style="88" customWidth="1"/>
-    <col min="779" max="1025" width="11.42578125" style="88"/>
-    <col min="1026" max="1026" width="44.5703125" style="88" customWidth="1"/>
-    <col min="1027" max="1028" width="10.85546875" style="88" customWidth="1"/>
-    <col min="1029" max="1029" width="10.42578125" style="88" customWidth="1"/>
-    <col min="1030" max="1030" width="11.28515625" style="88" customWidth="1"/>
-    <col min="1031" max="1033" width="11.5703125" style="88" customWidth="1"/>
-    <col min="1034" max="1034" width="18.5703125" style="88" customWidth="1"/>
-    <col min="1035" max="1281" width="11.42578125" style="88"/>
-    <col min="1282" max="1282" width="44.5703125" style="88" customWidth="1"/>
-    <col min="1283" max="1284" width="10.85546875" style="88" customWidth="1"/>
-    <col min="1285" max="1285" width="10.42578125" style="88" customWidth="1"/>
-    <col min="1286" max="1286" width="11.28515625" style="88" customWidth="1"/>
-    <col min="1287" max="1289" width="11.5703125" style="88" customWidth="1"/>
-    <col min="1290" max="1290" width="18.5703125" style="88" customWidth="1"/>
-    <col min="1291" max="1537" width="11.42578125" style="88"/>
-    <col min="1538" max="1538" width="44.5703125" style="88" customWidth="1"/>
-    <col min="1539" max="1540" width="10.85546875" style="88" customWidth="1"/>
-    <col min="1541" max="1541" width="10.42578125" style="88" customWidth="1"/>
-    <col min="1542" max="1542" width="11.28515625" style="88" customWidth="1"/>
-    <col min="1543" max="1545" width="11.5703125" style="88" customWidth="1"/>
-    <col min="1546" max="1546" width="18.5703125" style="88" customWidth="1"/>
-    <col min="1547" max="1793" width="11.42578125" style="88"/>
-    <col min="1794" max="1794" width="44.5703125" style="88" customWidth="1"/>
-    <col min="1795" max="1796" width="10.85546875" style="88" customWidth="1"/>
-    <col min="1797" max="1797" width="10.42578125" style="88" customWidth="1"/>
-    <col min="1798" max="1798" width="11.28515625" style="88" customWidth="1"/>
-    <col min="1799" max="1801" width="11.5703125" style="88" customWidth="1"/>
-    <col min="1802" max="1802" width="18.5703125" style="88" customWidth="1"/>
-    <col min="1803" max="2049" width="11.42578125" style="88"/>
-    <col min="2050" max="2050" width="44.5703125" style="88" customWidth="1"/>
-    <col min="2051" max="2052" width="10.85546875" style="88" customWidth="1"/>
-    <col min="2053" max="2053" width="10.42578125" style="88" customWidth="1"/>
-    <col min="2054" max="2054" width="11.28515625" style="88" customWidth="1"/>
-    <col min="2055" max="2057" width="11.5703125" style="88" customWidth="1"/>
-    <col min="2058" max="2058" width="18.5703125" style="88" customWidth="1"/>
-    <col min="2059" max="2305" width="11.42578125" style="88"/>
-    <col min="2306" max="2306" width="44.5703125" style="88" customWidth="1"/>
-    <col min="2307" max="2308" width="10.85546875" style="88" customWidth="1"/>
-    <col min="2309" max="2309" width="10.42578125" style="88" customWidth="1"/>
-    <col min="2310" max="2310" width="11.28515625" style="88" customWidth="1"/>
-    <col min="2311" max="2313" width="11.5703125" style="88" customWidth="1"/>
-    <col min="2314" max="2314" width="18.5703125" style="88" customWidth="1"/>
-    <col min="2315" max="2561" width="11.42578125" style="88"/>
-    <col min="2562" max="2562" width="44.5703125" style="88" customWidth="1"/>
-    <col min="2563" max="2564" width="10.85546875" style="88" customWidth="1"/>
-    <col min="2565" max="2565" width="10.42578125" style="88" customWidth="1"/>
-    <col min="2566" max="2566" width="11.28515625" style="88" customWidth="1"/>
-    <col min="2567" max="2569" width="11.5703125" style="88" customWidth="1"/>
-    <col min="2570" max="2570" width="18.5703125" style="88" customWidth="1"/>
-    <col min="2571" max="2817" width="11.42578125" style="88"/>
-    <col min="2818" max="2818" width="44.5703125" style="88" customWidth="1"/>
-    <col min="2819" max="2820" width="10.85546875" style="88" customWidth="1"/>
-    <col min="2821" max="2821" width="10.42578125" style="88" customWidth="1"/>
-    <col min="2822" max="2822" width="11.28515625" style="88" customWidth="1"/>
-    <col min="2823" max="2825" width="11.5703125" style="88" customWidth="1"/>
-    <col min="2826" max="2826" width="18.5703125" style="88" customWidth="1"/>
-    <col min="2827" max="3073" width="11.42578125" style="88"/>
-    <col min="3074" max="3074" width="44.5703125" style="88" customWidth="1"/>
-    <col min="3075" max="3076" width="10.85546875" style="88" customWidth="1"/>
-    <col min="3077" max="3077" width="10.42578125" style="88" customWidth="1"/>
-    <col min="3078" max="3078" width="11.28515625" style="88" customWidth="1"/>
-    <col min="3079" max="3081" width="11.5703125" style="88" customWidth="1"/>
-    <col min="3082" max="3082" width="18.5703125" style="88" customWidth="1"/>
-    <col min="3083" max="3329" width="11.42578125" style="88"/>
-    <col min="3330" max="3330" width="44.5703125" style="88" customWidth="1"/>
-    <col min="3331" max="3332" width="10.85546875" style="88" customWidth="1"/>
-    <col min="3333" max="3333" width="10.42578125" style="88" customWidth="1"/>
-    <col min="3334" max="3334" width="11.28515625" style="88" customWidth="1"/>
-    <col min="3335" max="3337" width="11.5703125" style="88" customWidth="1"/>
-    <col min="3338" max="3338" width="18.5703125" style="88" customWidth="1"/>
-    <col min="3339" max="3585" width="11.42578125" style="88"/>
-    <col min="3586" max="3586" width="44.5703125" style="88" customWidth="1"/>
-    <col min="3587" max="3588" width="10.85546875" style="88" customWidth="1"/>
-    <col min="3589" max="3589" width="10.42578125" style="88" customWidth="1"/>
-    <col min="3590" max="3590" width="11.28515625" style="88" customWidth="1"/>
-    <col min="3591" max="3593" width="11.5703125" style="88" customWidth="1"/>
-    <col min="3594" max="3594" width="18.5703125" style="88" customWidth="1"/>
-    <col min="3595" max="3841" width="11.42578125" style="88"/>
-    <col min="3842" max="3842" width="44.5703125" style="88" customWidth="1"/>
-    <col min="3843" max="3844" width="10.85546875" style="88" customWidth="1"/>
-    <col min="3845" max="3845" width="10.42578125" style="88" customWidth="1"/>
-    <col min="3846" max="3846" width="11.28515625" style="88" customWidth="1"/>
-    <col min="3847" max="3849" width="11.5703125" style="88" customWidth="1"/>
-    <col min="3850" max="3850" width="18.5703125" style="88" customWidth="1"/>
-    <col min="3851" max="4097" width="11.42578125" style="88"/>
-    <col min="4098" max="4098" width="44.5703125" style="88" customWidth="1"/>
-    <col min="4099" max="4100" width="10.85546875" style="88" customWidth="1"/>
-    <col min="4101" max="4101" width="10.42578125" style="88" customWidth="1"/>
-    <col min="4102" max="4102" width="11.28515625" style="88" customWidth="1"/>
-    <col min="4103" max="4105" width="11.5703125" style="88" customWidth="1"/>
-    <col min="4106" max="4106" width="18.5703125" style="88" customWidth="1"/>
-    <col min="4107" max="4353" width="11.42578125" style="88"/>
-    <col min="4354" max="4354" width="44.5703125" style="88" customWidth="1"/>
-    <col min="4355" max="4356" width="10.85546875" style="88" customWidth="1"/>
-    <col min="4357" max="4357" width="10.42578125" style="88" customWidth="1"/>
-    <col min="4358" max="4358" width="11.28515625" style="88" customWidth="1"/>
-    <col min="4359" max="4361" width="11.5703125" style="88" customWidth="1"/>
-    <col min="4362" max="4362" width="18.5703125" style="88" customWidth="1"/>
-    <col min="4363" max="4609" width="11.42578125" style="88"/>
-    <col min="4610" max="4610" width="44.5703125" style="88" customWidth="1"/>
-    <col min="4611" max="4612" width="10.85546875" style="88" customWidth="1"/>
-    <col min="4613" max="4613" width="10.42578125" style="88" customWidth="1"/>
-    <col min="4614" max="4614" width="11.28515625" style="88" customWidth="1"/>
-    <col min="4615" max="4617" width="11.5703125" style="88" customWidth="1"/>
-    <col min="4618" max="4618" width="18.5703125" style="88" customWidth="1"/>
-    <col min="4619" max="4865" width="11.42578125" style="88"/>
-    <col min="4866" max="4866" width="44.5703125" style="88" customWidth="1"/>
-    <col min="4867" max="4868" width="10.85546875" style="88" customWidth="1"/>
-    <col min="4869" max="4869" width="10.42578125" style="88" customWidth="1"/>
-    <col min="4870" max="4870" width="11.28515625" style="88" customWidth="1"/>
-    <col min="4871" max="4873" width="11.5703125" style="88" customWidth="1"/>
-    <col min="4874" max="4874" width="18.5703125" style="88" customWidth="1"/>
-    <col min="4875" max="5121" width="11.42578125" style="88"/>
-    <col min="5122" max="5122" width="44.5703125" style="88" customWidth="1"/>
-    <col min="5123" max="5124" width="10.85546875" style="88" customWidth="1"/>
-    <col min="5125" max="5125" width="10.42578125" style="88" customWidth="1"/>
-    <col min="5126" max="5126" width="11.28515625" style="88" customWidth="1"/>
-    <col min="5127" max="5129" width="11.5703125" style="88" customWidth="1"/>
-    <col min="5130" max="5130" width="18.5703125" style="88" customWidth="1"/>
-    <col min="5131" max="5377" width="11.42578125" style="88"/>
-    <col min="5378" max="5378" width="44.5703125" style="88" customWidth="1"/>
-    <col min="5379" max="5380" width="10.85546875" style="88" customWidth="1"/>
-    <col min="5381" max="5381" width="10.42578125" style="88" customWidth="1"/>
-    <col min="5382" max="5382" width="11.28515625" style="88" customWidth="1"/>
-    <col min="5383" max="5385" width="11.5703125" style="88" customWidth="1"/>
-    <col min="5386" max="5386" width="18.5703125" style="88" customWidth="1"/>
-    <col min="5387" max="5633" width="11.42578125" style="88"/>
-    <col min="5634" max="5634" width="44.5703125" style="88" customWidth="1"/>
-    <col min="5635" max="5636" width="10.85546875" style="88" customWidth="1"/>
-    <col min="5637" max="5637" width="10.42578125" style="88" customWidth="1"/>
-    <col min="5638" max="5638" width="11.28515625" style="88" customWidth="1"/>
-    <col min="5639" max="5641" width="11.5703125" style="88" customWidth="1"/>
-    <col min="5642" max="5642" width="18.5703125" style="88" customWidth="1"/>
-    <col min="5643" max="5889" width="11.42578125" style="88"/>
-    <col min="5890" max="5890" width="44.5703125" style="88" customWidth="1"/>
-    <col min="5891" max="5892" width="10.85546875" style="88" customWidth="1"/>
-    <col min="5893" max="5893" width="10.42578125" style="88" customWidth="1"/>
-    <col min="5894" max="5894" width="11.28515625" style="88" customWidth="1"/>
-    <col min="5895" max="5897" width="11.5703125" style="88" customWidth="1"/>
-    <col min="5898" max="5898" width="18.5703125" style="88" customWidth="1"/>
-    <col min="5899" max="6145" width="11.42578125" style="88"/>
-    <col min="6146" max="6146" width="44.5703125" style="88" customWidth="1"/>
-    <col min="6147" max="6148" width="10.85546875" style="88" customWidth="1"/>
-    <col min="6149" max="6149" width="10.42578125" style="88" customWidth="1"/>
-    <col min="6150" max="6150" width="11.28515625" style="88" customWidth="1"/>
-    <col min="6151" max="6153" width="11.5703125" style="88" customWidth="1"/>
-    <col min="6154" max="6154" width="18.5703125" style="88" customWidth="1"/>
-    <col min="6155" max="6401" width="11.42578125" style="88"/>
-    <col min="6402" max="6402" width="44.5703125" style="88" customWidth="1"/>
-    <col min="6403" max="6404" width="10.85546875" style="88" customWidth="1"/>
-    <col min="6405" max="6405" width="10.42578125" style="88" customWidth="1"/>
-    <col min="6406" max="6406" width="11.28515625" style="88" customWidth="1"/>
-    <col min="6407" max="6409" width="11.5703125" style="88" customWidth="1"/>
-    <col min="6410" max="6410" width="18.5703125" style="88" customWidth="1"/>
-    <col min="6411" max="6657" width="11.42578125" style="88"/>
-    <col min="6658" max="6658" width="44.5703125" style="88" customWidth="1"/>
-    <col min="6659" max="6660" width="10.85546875" style="88" customWidth="1"/>
-    <col min="6661" max="6661" width="10.42578125" style="88" customWidth="1"/>
-    <col min="6662" max="6662" width="11.28515625" style="88" customWidth="1"/>
-    <col min="6663" max="6665" width="11.5703125" style="88" customWidth="1"/>
-    <col min="6666" max="6666" width="18.5703125" style="88" customWidth="1"/>
-    <col min="6667" max="6913" width="11.42578125" style="88"/>
-    <col min="6914" max="6914" width="44.5703125" style="88" customWidth="1"/>
-    <col min="6915" max="6916" width="10.85546875" style="88" customWidth="1"/>
-    <col min="6917" max="6917" width="10.42578125" style="88" customWidth="1"/>
-    <col min="6918" max="6918" width="11.28515625" style="88" customWidth="1"/>
-    <col min="6919" max="6921" width="11.5703125" style="88" customWidth="1"/>
-    <col min="6922" max="6922" width="18.5703125" style="88" customWidth="1"/>
-    <col min="6923" max="7169" width="11.42578125" style="88"/>
-    <col min="7170" max="7170" width="44.5703125" style="88" customWidth="1"/>
-    <col min="7171" max="7172" width="10.85546875" style="88" customWidth="1"/>
-    <col min="7173" max="7173" width="10.42578125" style="88" customWidth="1"/>
-    <col min="7174" max="7174" width="11.28515625" style="88" customWidth="1"/>
-    <col min="7175" max="7177" width="11.5703125" style="88" customWidth="1"/>
-    <col min="7178" max="7178" width="18.5703125" style="88" customWidth="1"/>
-    <col min="7179" max="7425" width="11.42578125" style="88"/>
-    <col min="7426" max="7426" width="44.5703125" style="88" customWidth="1"/>
-    <col min="7427" max="7428" width="10.85546875" style="88" customWidth="1"/>
-    <col min="7429" max="7429" width="10.42578125" style="88" customWidth="1"/>
-    <col min="7430" max="7430" width="11.28515625" style="88" customWidth="1"/>
-    <col min="7431" max="7433" width="11.5703125" style="88" customWidth="1"/>
-    <col min="7434" max="7434" width="18.5703125" style="88" customWidth="1"/>
-    <col min="7435" max="7681" width="11.42578125" style="88"/>
-    <col min="7682" max="7682" width="44.5703125" style="88" customWidth="1"/>
-    <col min="7683" max="7684" width="10.85546875" style="88" customWidth="1"/>
-    <col min="7685" max="7685" width="10.42578125" style="88" customWidth="1"/>
-    <col min="7686" max="7686" width="11.28515625" style="88" customWidth="1"/>
-    <col min="7687" max="7689" width="11.5703125" style="88" customWidth="1"/>
-    <col min="7690" max="7690" width="18.5703125" style="88" customWidth="1"/>
-    <col min="7691" max="7937" width="11.42578125" style="88"/>
-    <col min="7938" max="7938" width="44.5703125" style="88" customWidth="1"/>
-    <col min="7939" max="7940" width="10.85546875" style="88" customWidth="1"/>
-    <col min="7941" max="7941" width="10.42578125" style="88" customWidth="1"/>
-    <col min="7942" max="7942" width="11.28515625" style="88" customWidth="1"/>
-    <col min="7943" max="7945" width="11.5703125" style="88" customWidth="1"/>
-    <col min="7946" max="7946" width="18.5703125" style="88" customWidth="1"/>
-    <col min="7947" max="8193" width="11.42578125" style="88"/>
-    <col min="8194" max="8194" width="44.5703125" style="88" customWidth="1"/>
-    <col min="8195" max="8196" width="10.85546875" style="88" customWidth="1"/>
-    <col min="8197" max="8197" width="10.42578125" style="88" customWidth="1"/>
-    <col min="8198" max="8198" width="11.28515625" style="88" customWidth="1"/>
-    <col min="8199" max="8201" width="11.5703125" style="88" customWidth="1"/>
-    <col min="8202" max="8202" width="18.5703125" style="88" customWidth="1"/>
-    <col min="8203" max="8449" width="11.42578125" style="88"/>
-    <col min="8450" max="8450" width="44.5703125" style="88" customWidth="1"/>
-    <col min="8451" max="8452" width="10.85546875" style="88" customWidth="1"/>
-    <col min="8453" max="8453" width="10.42578125" style="88" customWidth="1"/>
-    <col min="8454" max="8454" width="11.28515625" style="88" customWidth="1"/>
-    <col min="8455" max="8457" width="11.5703125" style="88" customWidth="1"/>
-    <col min="8458" max="8458" width="18.5703125" style="88" customWidth="1"/>
-    <col min="8459" max="8705" width="11.42578125" style="88"/>
-    <col min="8706" max="8706" width="44.5703125" style="88" customWidth="1"/>
-    <col min="8707" max="8708" width="10.85546875" style="88" customWidth="1"/>
-    <col min="8709" max="8709" width="10.42578125" style="88" customWidth="1"/>
-    <col min="8710" max="8710" width="11.28515625" style="88" customWidth="1"/>
-    <col min="8711" max="8713" width="11.5703125" style="88" customWidth="1"/>
-    <col min="8714" max="8714" width="18.5703125" style="88" customWidth="1"/>
-    <col min="8715" max="8961" width="11.42578125" style="88"/>
-    <col min="8962" max="8962" width="44.5703125" style="88" customWidth="1"/>
-    <col min="8963" max="8964" width="10.85546875" style="88" customWidth="1"/>
-    <col min="8965" max="8965" width="10.42578125" style="88" customWidth="1"/>
-    <col min="8966" max="8966" width="11.28515625" style="88" customWidth="1"/>
-    <col min="8967" max="8969" width="11.5703125" style="88" customWidth="1"/>
-    <col min="8970" max="8970" width="18.5703125" style="88" customWidth="1"/>
-    <col min="8971" max="9217" width="11.42578125" style="88"/>
-    <col min="9218" max="9218" width="44.5703125" style="88" customWidth="1"/>
-    <col min="9219" max="9220" width="10.85546875" style="88" customWidth="1"/>
-    <col min="9221" max="9221" width="10.42578125" style="88" customWidth="1"/>
-    <col min="9222" max="9222" width="11.28515625" style="88" customWidth="1"/>
-    <col min="9223" max="9225" width="11.5703125" style="88" customWidth="1"/>
-    <col min="9226" max="9226" width="18.5703125" style="88" customWidth="1"/>
-    <col min="9227" max="9473" width="11.42578125" style="88"/>
-    <col min="9474" max="9474" width="44.5703125" style="88" customWidth="1"/>
-    <col min="9475" max="9476" width="10.85546875" style="88" customWidth="1"/>
-    <col min="9477" max="9477" width="10.42578125" style="88" customWidth="1"/>
-    <col min="9478" max="9478" width="11.28515625" style="88" customWidth="1"/>
-    <col min="9479" max="9481" width="11.5703125" style="88" customWidth="1"/>
-    <col min="9482" max="9482" width="18.5703125" style="88" customWidth="1"/>
-    <col min="9483" max="9729" width="11.42578125" style="88"/>
-    <col min="9730" max="9730" width="44.5703125" style="88" customWidth="1"/>
-    <col min="9731" max="9732" width="10.85546875" style="88" customWidth="1"/>
-    <col min="9733" max="9733" width="10.42578125" style="88" customWidth="1"/>
-    <col min="9734" max="9734" width="11.28515625" style="88" customWidth="1"/>
-    <col min="9735" max="9737" width="11.5703125" style="88" customWidth="1"/>
-    <col min="9738" max="9738" width="18.5703125" style="88" customWidth="1"/>
-    <col min="9739" max="9985" width="11.42578125" style="88"/>
-    <col min="9986" max="9986" width="44.5703125" style="88" customWidth="1"/>
-    <col min="9987" max="9988" width="10.85546875" style="88" customWidth="1"/>
-    <col min="9989" max="9989" width="10.42578125" style="88" customWidth="1"/>
-    <col min="9990" max="9990" width="11.28515625" style="88" customWidth="1"/>
-    <col min="9991" max="9993" width="11.5703125" style="88" customWidth="1"/>
-    <col min="9994" max="9994" width="18.5703125" style="88" customWidth="1"/>
-    <col min="9995" max="10241" width="11.42578125" style="88"/>
-    <col min="10242" max="10242" width="44.5703125" style="88" customWidth="1"/>
-    <col min="10243" max="10244" width="10.85546875" style="88" customWidth="1"/>
-    <col min="10245" max="10245" width="10.42578125" style="88" customWidth="1"/>
-    <col min="10246" max="10246" width="11.28515625" style="88" customWidth="1"/>
-    <col min="10247" max="10249" width="11.5703125" style="88" customWidth="1"/>
-    <col min="10250" max="10250" width="18.5703125" style="88" customWidth="1"/>
-    <col min="10251" max="10497" width="11.42578125" style="88"/>
-    <col min="10498" max="10498" width="44.5703125" style="88" customWidth="1"/>
-    <col min="10499" max="10500" width="10.85546875" style="88" customWidth="1"/>
-    <col min="10501" max="10501" width="10.42578125" style="88" customWidth="1"/>
-    <col min="10502" max="10502" width="11.28515625" style="88" customWidth="1"/>
-    <col min="10503" max="10505" width="11.5703125" style="88" customWidth="1"/>
-    <col min="10506" max="10506" width="18.5703125" style="88" customWidth="1"/>
-    <col min="10507" max="10753" width="11.42578125" style="88"/>
-    <col min="10754" max="10754" width="44.5703125" style="88" customWidth="1"/>
-    <col min="10755" max="10756" width="10.85546875" style="88" customWidth="1"/>
-    <col min="10757" max="10757" width="10.42578125" style="88" customWidth="1"/>
-    <col min="10758" max="10758" width="11.28515625" style="88" customWidth="1"/>
-    <col min="10759" max="10761" width="11.5703125" style="88" customWidth="1"/>
-    <col min="10762" max="10762" width="18.5703125" style="88" customWidth="1"/>
-    <col min="10763" max="11009" width="11.42578125" style="88"/>
-    <col min="11010" max="11010" width="44.5703125" style="88" customWidth="1"/>
-    <col min="11011" max="11012" width="10.85546875" style="88" customWidth="1"/>
-    <col min="11013" max="11013" width="10.42578125" style="88" customWidth="1"/>
-    <col min="11014" max="11014" width="11.28515625" style="88" customWidth="1"/>
-    <col min="11015" max="11017" width="11.5703125" style="88" customWidth="1"/>
-    <col min="11018" max="11018" width="18.5703125" style="88" customWidth="1"/>
-    <col min="11019" max="11265" width="11.42578125" style="88"/>
-    <col min="11266" max="11266" width="44.5703125" style="88" customWidth="1"/>
-    <col min="11267" max="11268" width="10.85546875" style="88" customWidth="1"/>
-    <col min="11269" max="11269" width="10.42578125" style="88" customWidth="1"/>
-    <col min="11270" max="11270" width="11.28515625" style="88" customWidth="1"/>
-    <col min="11271" max="11273" width="11.5703125" style="88" customWidth="1"/>
-    <col min="11274" max="11274" width="18.5703125" style="88" customWidth="1"/>
-    <col min="11275" max="11521" width="11.42578125" style="88"/>
-    <col min="11522" max="11522" width="44.5703125" style="88" customWidth="1"/>
-    <col min="11523" max="11524" width="10.85546875" style="88" customWidth="1"/>
-    <col min="11525" max="11525" width="10.42578125" style="88" customWidth="1"/>
-    <col min="11526" max="11526" width="11.28515625" style="88" customWidth="1"/>
-    <col min="11527" max="11529" width="11.5703125" style="88" customWidth="1"/>
-    <col min="11530" max="11530" width="18.5703125" style="88" customWidth="1"/>
-    <col min="11531" max="11777" width="11.42578125" style="88"/>
-    <col min="11778" max="11778" width="44.5703125" style="88" customWidth="1"/>
-    <col min="11779" max="11780" width="10.85546875" style="88" customWidth="1"/>
-    <col min="11781" max="11781" width="10.42578125" style="88" customWidth="1"/>
-    <col min="11782" max="11782" width="11.28515625" style="88" customWidth="1"/>
-    <col min="11783" max="11785" width="11.5703125" style="88" customWidth="1"/>
-    <col min="11786" max="11786" width="18.5703125" style="88" customWidth="1"/>
-    <col min="11787" max="12033" width="11.42578125" style="88"/>
-    <col min="12034" max="12034" width="44.5703125" style="88" customWidth="1"/>
-    <col min="12035" max="12036" width="10.85546875" style="88" customWidth="1"/>
-    <col min="12037" max="12037" width="10.42578125" style="88" customWidth="1"/>
-    <col min="12038" max="12038" width="11.28515625" style="88" customWidth="1"/>
-    <col min="12039" max="12041" width="11.5703125" style="88" customWidth="1"/>
-    <col min="12042" max="12042" width="18.5703125" style="88" customWidth="1"/>
-    <col min="12043" max="12289" width="11.42578125" style="88"/>
-    <col min="12290" max="12290" width="44.5703125" style="88" customWidth="1"/>
-    <col min="12291" max="12292" width="10.85546875" style="88" customWidth="1"/>
-    <col min="12293" max="12293" width="10.42578125" style="88" customWidth="1"/>
-    <col min="12294" max="12294" width="11.28515625" style="88" customWidth="1"/>
-    <col min="12295" max="12297" width="11.5703125" style="88" customWidth="1"/>
-    <col min="12298" max="12298" width="18.5703125" style="88" customWidth="1"/>
-    <col min="12299" max="12545" width="11.42578125" style="88"/>
-    <col min="12546" max="12546" width="44.5703125" style="88" customWidth="1"/>
-    <col min="12547" max="12548" width="10.85546875" style="88" customWidth="1"/>
-    <col min="12549" max="12549" width="10.42578125" style="88" customWidth="1"/>
-    <col min="12550" max="12550" width="11.28515625" style="88" customWidth="1"/>
-    <col min="12551" max="12553" width="11.5703125" style="88" customWidth="1"/>
-    <col min="12554" max="12554" width="18.5703125" style="88" customWidth="1"/>
-    <col min="12555" max="12801" width="11.42578125" style="88"/>
-    <col min="12802" max="12802" width="44.5703125" style="88" customWidth="1"/>
-    <col min="12803" max="12804" width="10.85546875" style="88" customWidth="1"/>
-    <col min="12805" max="12805" width="10.42578125" style="88" customWidth="1"/>
-    <col min="12806" max="12806" width="11.28515625" style="88" customWidth="1"/>
-    <col min="12807" max="12809" width="11.5703125" style="88" customWidth="1"/>
-    <col min="12810" max="12810" width="18.5703125" style="88" customWidth="1"/>
-    <col min="12811" max="13057" width="11.42578125" style="88"/>
-    <col min="13058" max="13058" width="44.5703125" style="88" customWidth="1"/>
-    <col min="13059" max="13060" width="10.85546875" style="88" customWidth="1"/>
-    <col min="13061" max="13061" width="10.42578125" style="88" customWidth="1"/>
-    <col min="13062" max="13062" width="11.28515625" style="88" customWidth="1"/>
-    <col min="13063" max="13065" width="11.5703125" style="88" customWidth="1"/>
-    <col min="13066" max="13066" width="18.5703125" style="88" customWidth="1"/>
-    <col min="13067" max="13313" width="11.42578125" style="88"/>
-    <col min="13314" max="13314" width="44.5703125" style="88" customWidth="1"/>
-    <col min="13315" max="13316" width="10.85546875" style="88" customWidth="1"/>
-    <col min="13317" max="13317" width="10.42578125" style="88" customWidth="1"/>
-    <col min="13318" max="13318" width="11.28515625" style="88" customWidth="1"/>
-    <col min="13319" max="13321" width="11.5703125" style="88" customWidth="1"/>
-    <col min="13322" max="13322" width="18.5703125" style="88" customWidth="1"/>
-    <col min="13323" max="13569" width="11.42578125" style="88"/>
-    <col min="13570" max="13570" width="44.5703125" style="88" customWidth="1"/>
-    <col min="13571" max="13572" width="10.85546875" style="88" customWidth="1"/>
-    <col min="13573" max="13573" width="10.42578125" style="88" customWidth="1"/>
-    <col min="13574" max="13574" width="11.28515625" style="88" customWidth="1"/>
-    <col min="13575" max="13577" width="11.5703125" style="88" customWidth="1"/>
-    <col min="13578" max="13578" width="18.5703125" style="88" customWidth="1"/>
-    <col min="13579" max="13825" width="11.42578125" style="88"/>
-    <col min="13826" max="13826" width="44.5703125" style="88" customWidth="1"/>
-    <col min="13827" max="13828" width="10.85546875" style="88" customWidth="1"/>
-    <col min="13829" max="13829" width="10.42578125" style="88" customWidth="1"/>
-    <col min="13830" max="13830" width="11.28515625" style="88" customWidth="1"/>
-    <col min="13831" max="13833" width="11.5703125" style="88" customWidth="1"/>
-    <col min="13834" max="13834" width="18.5703125" style="88" customWidth="1"/>
-    <col min="13835" max="14081" width="11.42578125" style="88"/>
-    <col min="14082" max="14082" width="44.5703125" style="88" customWidth="1"/>
-    <col min="14083" max="14084" width="10.85546875" style="88" customWidth="1"/>
-    <col min="14085" max="14085" width="10.42578125" style="88" customWidth="1"/>
-    <col min="14086" max="14086" width="11.28515625" style="88" customWidth="1"/>
-    <col min="14087" max="14089" width="11.5703125" style="88" customWidth="1"/>
-    <col min="14090" max="14090" width="18.5703125" style="88" customWidth="1"/>
-    <col min="14091" max="14337" width="11.42578125" style="88"/>
-    <col min="14338" max="14338" width="44.5703125" style="88" customWidth="1"/>
-    <col min="14339" max="14340" width="10.85546875" style="88" customWidth="1"/>
-    <col min="14341" max="14341" width="10.42578125" style="88" customWidth="1"/>
-    <col min="14342" max="14342" width="11.28515625" style="88" customWidth="1"/>
-    <col min="14343" max="14345" width="11.5703125" style="88" customWidth="1"/>
-    <col min="14346" max="14346" width="18.5703125" style="88" customWidth="1"/>
-    <col min="14347" max="14593" width="11.42578125" style="88"/>
-    <col min="14594" max="14594" width="44.5703125" style="88" customWidth="1"/>
-    <col min="14595" max="14596" width="10.85546875" style="88" customWidth="1"/>
-    <col min="14597" max="14597" width="10.42578125" style="88" customWidth="1"/>
-    <col min="14598" max="14598" width="11.28515625" style="88" customWidth="1"/>
-    <col min="14599" max="14601" width="11.5703125" style="88" customWidth="1"/>
-    <col min="14602" max="14602" width="18.5703125" style="88" customWidth="1"/>
-    <col min="14603" max="14849" width="11.42578125" style="88"/>
-    <col min="14850" max="14850" width="44.5703125" style="88" customWidth="1"/>
-    <col min="14851" max="14852" width="10.85546875" style="88" customWidth="1"/>
-    <col min="14853" max="14853" width="10.42578125" style="88" customWidth="1"/>
-    <col min="14854" max="14854" width="11.28515625" style="88" customWidth="1"/>
-    <col min="14855" max="14857" width="11.5703125" style="88" customWidth="1"/>
-    <col min="14858" max="14858" width="18.5703125" style="88" customWidth="1"/>
-    <col min="14859" max="15105" width="11.42578125" style="88"/>
-    <col min="15106" max="15106" width="44.5703125" style="88" customWidth="1"/>
-    <col min="15107" max="15108" width="10.85546875" style="88" customWidth="1"/>
-    <col min="15109" max="15109" width="10.42578125" style="88" customWidth="1"/>
-    <col min="15110" max="15110" width="11.28515625" style="88" customWidth="1"/>
-    <col min="15111" max="15113" width="11.5703125" style="88" customWidth="1"/>
-    <col min="15114" max="15114" width="18.5703125" style="88" customWidth="1"/>
-    <col min="15115" max="15361" width="11.42578125" style="88"/>
-    <col min="15362" max="15362" width="44.5703125" style="88" customWidth="1"/>
-    <col min="15363" max="15364" width="10.85546875" style="88" customWidth="1"/>
-    <col min="15365" max="15365" width="10.42578125" style="88" customWidth="1"/>
-    <col min="15366" max="15366" width="11.28515625" style="88" customWidth="1"/>
-    <col min="15367" max="15369" width="11.5703125" style="88" customWidth="1"/>
-    <col min="15370" max="15370" width="18.5703125" style="88" customWidth="1"/>
-    <col min="15371" max="15617" width="11.42578125" style="88"/>
-    <col min="15618" max="15618" width="44.5703125" style="88" customWidth="1"/>
-    <col min="15619" max="15620" width="10.85546875" style="88" customWidth="1"/>
-    <col min="15621" max="15621" width="10.42578125" style="88" customWidth="1"/>
-    <col min="15622" max="15622" width="11.28515625" style="88" customWidth="1"/>
-    <col min="15623" max="15625" width="11.5703125" style="88" customWidth="1"/>
-    <col min="15626" max="15626" width="18.5703125" style="88" customWidth="1"/>
-    <col min="15627" max="15873" width="11.42578125" style="88"/>
-    <col min="15874" max="15874" width="44.5703125" style="88" customWidth="1"/>
-    <col min="15875" max="15876" width="10.85546875" style="88" customWidth="1"/>
-    <col min="15877" max="15877" width="10.42578125" style="88" customWidth="1"/>
-    <col min="15878" max="15878" width="11.28515625" style="88" customWidth="1"/>
-    <col min="15879" max="15881" width="11.5703125" style="88" customWidth="1"/>
-    <col min="15882" max="15882" width="18.5703125" style="88" customWidth="1"/>
-    <col min="15883" max="16129" width="11.42578125" style="88"/>
-    <col min="16130" max="16130" width="44.5703125" style="88" customWidth="1"/>
-    <col min="16131" max="16132" width="10.85546875" style="88" customWidth="1"/>
-    <col min="16133" max="16133" width="10.42578125" style="88" customWidth="1"/>
-    <col min="16134" max="16134" width="11.28515625" style="88" customWidth="1"/>
-    <col min="16135" max="16137" width="11.5703125" style="88" customWidth="1"/>
-    <col min="16138" max="16138" width="18.5703125" style="88" customWidth="1"/>
-    <col min="16139" max="16384" width="11.42578125" style="88"/>
+    <col min="5" max="5" width="19.5" style="126" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="126" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="126" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="126" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="126" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="108" customWidth="1"/>
+    <col min="11" max="257" width="11.5" style="88"/>
+    <col min="258" max="258" width="44.5" style="88" customWidth="1"/>
+    <col min="259" max="260" width="10.83203125" style="88" customWidth="1"/>
+    <col min="261" max="261" width="10.5" style="88" customWidth="1"/>
+    <col min="262" max="262" width="11.33203125" style="88" customWidth="1"/>
+    <col min="263" max="265" width="11.5" style="88" customWidth="1"/>
+    <col min="266" max="266" width="18.5" style="88" customWidth="1"/>
+    <col min="267" max="513" width="11.5" style="88"/>
+    <col min="514" max="514" width="44.5" style="88" customWidth="1"/>
+    <col min="515" max="516" width="10.83203125" style="88" customWidth="1"/>
+    <col min="517" max="517" width="10.5" style="88" customWidth="1"/>
+    <col min="518" max="518" width="11.33203125" style="88" customWidth="1"/>
+    <col min="519" max="521" width="11.5" style="88" customWidth="1"/>
+    <col min="522" max="522" width="18.5" style="88" customWidth="1"/>
+    <col min="523" max="769" width="11.5" style="88"/>
+    <col min="770" max="770" width="44.5" style="88" customWidth="1"/>
+    <col min="771" max="772" width="10.83203125" style="88" customWidth="1"/>
+    <col min="773" max="773" width="10.5" style="88" customWidth="1"/>
+    <col min="774" max="774" width="11.33203125" style="88" customWidth="1"/>
+    <col min="775" max="777" width="11.5" style="88" customWidth="1"/>
+    <col min="778" max="778" width="18.5" style="88" customWidth="1"/>
+    <col min="779" max="1025" width="11.5" style="88"/>
+    <col min="1026" max="1026" width="44.5" style="88" customWidth="1"/>
+    <col min="1027" max="1028" width="10.83203125" style="88" customWidth="1"/>
+    <col min="1029" max="1029" width="10.5" style="88" customWidth="1"/>
+    <col min="1030" max="1030" width="11.33203125" style="88" customWidth="1"/>
+    <col min="1031" max="1033" width="11.5" style="88" customWidth="1"/>
+    <col min="1034" max="1034" width="18.5" style="88" customWidth="1"/>
+    <col min="1035" max="1281" width="11.5" style="88"/>
+    <col min="1282" max="1282" width="44.5" style="88" customWidth="1"/>
+    <col min="1283" max="1284" width="10.83203125" style="88" customWidth="1"/>
+    <col min="1285" max="1285" width="10.5" style="88" customWidth="1"/>
+    <col min="1286" max="1286" width="11.33203125" style="88" customWidth="1"/>
+    <col min="1287" max="1289" width="11.5" style="88" customWidth="1"/>
+    <col min="1290" max="1290" width="18.5" style="88" customWidth="1"/>
+    <col min="1291" max="1537" width="11.5" style="88"/>
+    <col min="1538" max="1538" width="44.5" style="88" customWidth="1"/>
+    <col min="1539" max="1540" width="10.83203125" style="88" customWidth="1"/>
+    <col min="1541" max="1541" width="10.5" style="88" customWidth="1"/>
+    <col min="1542" max="1542" width="11.33203125" style="88" customWidth="1"/>
+    <col min="1543" max="1545" width="11.5" style="88" customWidth="1"/>
+    <col min="1546" max="1546" width="18.5" style="88" customWidth="1"/>
+    <col min="1547" max="1793" width="11.5" style="88"/>
+    <col min="1794" max="1794" width="44.5" style="88" customWidth="1"/>
+    <col min="1795" max="1796" width="10.83203125" style="88" customWidth="1"/>
+    <col min="1797" max="1797" width="10.5" style="88" customWidth="1"/>
+    <col min="1798" max="1798" width="11.33203125" style="88" customWidth="1"/>
+    <col min="1799" max="1801" width="11.5" style="88" customWidth="1"/>
+    <col min="1802" max="1802" width="18.5" style="88" customWidth="1"/>
+    <col min="1803" max="2049" width="11.5" style="88"/>
+    <col min="2050" max="2050" width="44.5" style="88" customWidth="1"/>
+    <col min="2051" max="2052" width="10.83203125" style="88" customWidth="1"/>
+    <col min="2053" max="2053" width="10.5" style="88" customWidth="1"/>
+    <col min="2054" max="2054" width="11.33203125" style="88" customWidth="1"/>
+    <col min="2055" max="2057" width="11.5" style="88" customWidth="1"/>
+    <col min="2058" max="2058" width="18.5" style="88" customWidth="1"/>
+    <col min="2059" max="2305" width="11.5" style="88"/>
+    <col min="2306" max="2306" width="44.5" style="88" customWidth="1"/>
+    <col min="2307" max="2308" width="10.83203125" style="88" customWidth="1"/>
+    <col min="2309" max="2309" width="10.5" style="88" customWidth="1"/>
+    <col min="2310" max="2310" width="11.33203125" style="88" customWidth="1"/>
+    <col min="2311" max="2313" width="11.5" style="88" customWidth="1"/>
+    <col min="2314" max="2314" width="18.5" style="88" customWidth="1"/>
+    <col min="2315" max="2561" width="11.5" style="88"/>
+    <col min="2562" max="2562" width="44.5" style="88" customWidth="1"/>
+    <col min="2563" max="2564" width="10.83203125" style="88" customWidth="1"/>
+    <col min="2565" max="2565" width="10.5" style="88" customWidth="1"/>
+    <col min="2566" max="2566" width="11.33203125" style="88" customWidth="1"/>
+    <col min="2567" max="2569" width="11.5" style="88" customWidth="1"/>
+    <col min="2570" max="2570" width="18.5" style="88" customWidth="1"/>
+    <col min="2571" max="2817" width="11.5" style="88"/>
+    <col min="2818" max="2818" width="44.5" style="88" customWidth="1"/>
+    <col min="2819" max="2820" width="10.83203125" style="88" customWidth="1"/>
+    <col min="2821" max="2821" width="10.5" style="88" customWidth="1"/>
+    <col min="2822" max="2822" width="11.33203125" style="88" customWidth="1"/>
+    <col min="2823" max="2825" width="11.5" style="88" customWidth="1"/>
+    <col min="2826" max="2826" width="18.5" style="88" customWidth="1"/>
+    <col min="2827" max="3073" width="11.5" style="88"/>
+    <col min="3074" max="3074" width="44.5" style="88" customWidth="1"/>
+    <col min="3075" max="3076" width="10.83203125" style="88" customWidth="1"/>
+    <col min="3077" max="3077" width="10.5" style="88" customWidth="1"/>
+    <col min="3078" max="3078" width="11.33203125" style="88" customWidth="1"/>
+    <col min="3079" max="3081" width="11.5" style="88" customWidth="1"/>
+    <col min="3082" max="3082" width="18.5" style="88" customWidth="1"/>
+    <col min="3083" max="3329" width="11.5" style="88"/>
+    <col min="3330" max="3330" width="44.5" style="88" customWidth="1"/>
+    <col min="3331" max="3332" width="10.83203125" style="88" customWidth="1"/>
+    <col min="3333" max="3333" width="10.5" style="88" customWidth="1"/>
+    <col min="3334" max="3334" width="11.33203125" style="88" customWidth="1"/>
+    <col min="3335" max="3337" width="11.5" style="88" customWidth="1"/>
+    <col min="3338" max="3338" width="18.5" style="88" customWidth="1"/>
+    <col min="3339" max="3585" width="11.5" style="88"/>
+    <col min="3586" max="3586" width="44.5" style="88" customWidth="1"/>
+    <col min="3587" max="3588" width="10.83203125" style="88" customWidth="1"/>
+    <col min="3589" max="3589" width="10.5" style="88" customWidth="1"/>
+    <col min="3590" max="3590" width="11.33203125" style="88" customWidth="1"/>
+    <col min="3591" max="3593" width="11.5" style="88" customWidth="1"/>
+    <col min="3594" max="3594" width="18.5" style="88" customWidth="1"/>
+    <col min="3595" max="3841" width="11.5" style="88"/>
+    <col min="3842" max="3842" width="44.5" style="88" customWidth="1"/>
+    <col min="3843" max="3844" width="10.83203125" style="88" customWidth="1"/>
+    <col min="3845" max="3845" width="10.5" style="88" customWidth="1"/>
+    <col min="3846" max="3846" width="11.33203125" style="88" customWidth="1"/>
+    <col min="3847" max="3849" width="11.5" style="88" customWidth="1"/>
+    <col min="3850" max="3850" width="18.5" style="88" customWidth="1"/>
+    <col min="3851" max="4097" width="11.5" style="88"/>
+    <col min="4098" max="4098" width="44.5" style="88" customWidth="1"/>
+    <col min="4099" max="4100" width="10.83203125" style="88" customWidth="1"/>
+    <col min="4101" max="4101" width="10.5" style="88" customWidth="1"/>
+    <col min="4102" max="4102" width="11.33203125" style="88" customWidth="1"/>
+    <col min="4103" max="4105" width="11.5" style="88" customWidth="1"/>
+    <col min="4106" max="4106" width="18.5" style="88" customWidth="1"/>
+    <col min="4107" max="4353" width="11.5" style="88"/>
+    <col min="4354" max="4354" width="44.5" style="88" customWidth="1"/>
+    <col min="4355" max="4356" width="10.83203125" style="88" customWidth="1"/>
+    <col min="4357" max="4357" width="10.5" style="88" customWidth="1"/>
+    <col min="4358" max="4358" width="11.33203125" style="88" customWidth="1"/>
+    <col min="4359" max="4361" width="11.5" style="88" customWidth="1"/>
+    <col min="4362" max="4362" width="18.5" style="88" customWidth="1"/>
+    <col min="4363" max="4609" width="11.5" style="88"/>
+    <col min="4610" max="4610" width="44.5" style="88" customWidth="1"/>
+    <col min="4611" max="4612" width="10.83203125" style="88" customWidth="1"/>
+    <col min="4613" max="4613" width="10.5" style="88" customWidth="1"/>
+    <col min="4614" max="4614" width="11.33203125" style="88" customWidth="1"/>
+    <col min="4615" max="4617" width="11.5" style="88" customWidth="1"/>
+    <col min="4618" max="4618" width="18.5" style="88" customWidth="1"/>
+    <col min="4619" max="4865" width="11.5" style="88"/>
+    <col min="4866" max="4866" width="44.5" style="88" customWidth="1"/>
+    <col min="4867" max="4868" width="10.83203125" style="88" customWidth="1"/>
+    <col min="4869" max="4869" width="10.5" style="88" customWidth="1"/>
+    <col min="4870" max="4870" width="11.33203125" style="88" customWidth="1"/>
+    <col min="4871" max="4873" width="11.5" style="88" customWidth="1"/>
+    <col min="4874" max="4874" width="18.5" style="88" customWidth="1"/>
+    <col min="4875" max="5121" width="11.5" style="88"/>
+    <col min="5122" max="5122" width="44.5" style="88" customWidth="1"/>
+    <col min="5123" max="5124" width="10.83203125" style="88" customWidth="1"/>
+    <col min="5125" max="5125" width="10.5" style="88" customWidth="1"/>
+    <col min="5126" max="5126" width="11.33203125" style="88" customWidth="1"/>
+    <col min="5127" max="5129" width="11.5" style="88" customWidth="1"/>
+    <col min="5130" max="5130" width="18.5" style="88" customWidth="1"/>
+    <col min="5131" max="5377" width="11.5" style="88"/>
+    <col min="5378" max="5378" width="44.5" style="88" customWidth="1"/>
+    <col min="5379" max="5380" width="10.83203125" style="88" customWidth="1"/>
+    <col min="5381" max="5381" width="10.5" style="88" customWidth="1"/>
+    <col min="5382" max="5382" width="11.33203125" style="88" customWidth="1"/>
+    <col min="5383" max="5385" width="11.5" style="88" customWidth="1"/>
+    <col min="5386" max="5386" width="18.5" style="88" customWidth="1"/>
+    <col min="5387" max="5633" width="11.5" style="88"/>
+    <col min="5634" max="5634" width="44.5" style="88" customWidth="1"/>
+    <col min="5635" max="5636" width="10.83203125" style="88" customWidth="1"/>
+    <col min="5637" max="5637" width="10.5" style="88" customWidth="1"/>
+    <col min="5638" max="5638" width="11.33203125" style="88" customWidth="1"/>
+    <col min="5639" max="5641" width="11.5" style="88" customWidth="1"/>
+    <col min="5642" max="5642" width="18.5" style="88" customWidth="1"/>
+    <col min="5643" max="5889" width="11.5" style="88"/>
+    <col min="5890" max="5890" width="44.5" style="88" customWidth="1"/>
+    <col min="5891" max="5892" width="10.83203125" style="88" customWidth="1"/>
+    <col min="5893" max="5893" width="10.5" style="88" customWidth="1"/>
+    <col min="5894" max="5894" width="11.33203125" style="88" customWidth="1"/>
+    <col min="5895" max="5897" width="11.5" style="88" customWidth="1"/>
+    <col min="5898" max="5898" width="18.5" style="88" customWidth="1"/>
+    <col min="5899" max="6145" width="11.5" style="88"/>
+    <col min="6146" max="6146" width="44.5" style="88" customWidth="1"/>
+    <col min="6147" max="6148" width="10.83203125" style="88" customWidth="1"/>
+    <col min="6149" max="6149" width="10.5" style="88" customWidth="1"/>
+    <col min="6150" max="6150" width="11.33203125" style="88" customWidth="1"/>
+    <col min="6151" max="6153" width="11.5" style="88" customWidth="1"/>
+    <col min="6154" max="6154" width="18.5" style="88" customWidth="1"/>
+    <col min="6155" max="6401" width="11.5" style="88"/>
+    <col min="6402" max="6402" width="44.5" style="88" customWidth="1"/>
+    <col min="6403" max="6404" width="10.83203125" style="88" customWidth="1"/>
+    <col min="6405" max="6405" width="10.5" style="88" customWidth="1"/>
+    <col min="6406" max="6406" width="11.33203125" style="88" customWidth="1"/>
+    <col min="6407" max="6409" width="11.5" style="88" customWidth="1"/>
+    <col min="6410" max="6410" width="18.5" style="88" customWidth="1"/>
+    <col min="6411" max="6657" width="11.5" style="88"/>
+    <col min="6658" max="6658" width="44.5" style="88" customWidth="1"/>
+    <col min="6659" max="6660" width="10.83203125" style="88" customWidth="1"/>
+    <col min="6661" max="6661" width="10.5" style="88" customWidth="1"/>
+    <col min="6662" max="6662" width="11.33203125" style="88" customWidth="1"/>
+    <col min="6663" max="6665" width="11.5" style="88" customWidth="1"/>
+    <col min="6666" max="6666" width="18.5" style="88" customWidth="1"/>
+    <col min="6667" max="6913" width="11.5" style="88"/>
+    <col min="6914" max="6914" width="44.5" style="88" customWidth="1"/>
+    <col min="6915" max="6916" width="10.83203125" style="88" customWidth="1"/>
+    <col min="6917" max="6917" width="10.5" style="88" customWidth="1"/>
+    <col min="6918" max="6918" width="11.33203125" style="88" customWidth="1"/>
+    <col min="6919" max="6921" width="11.5" style="88" customWidth="1"/>
+    <col min="6922" max="6922" width="18.5" style="88" customWidth="1"/>
+    <col min="6923" max="7169" width="11.5" style="88"/>
+    <col min="7170" max="7170" width="44.5" style="88" customWidth="1"/>
+    <col min="7171" max="7172" width="10.83203125" style="88" customWidth="1"/>
+    <col min="7173" max="7173" width="10.5" style="88" customWidth="1"/>
+    <col min="7174" max="7174" width="11.33203125" style="88" customWidth="1"/>
+    <col min="7175" max="7177" width="11.5" style="88" customWidth="1"/>
+    <col min="7178" max="7178" width="18.5" style="88" customWidth="1"/>
+    <col min="7179" max="7425" width="11.5" style="88"/>
+    <col min="7426" max="7426" width="44.5" style="88" customWidth="1"/>
+    <col min="7427" max="7428" width="10.83203125" style="88" customWidth="1"/>
+    <col min="7429" max="7429" width="10.5" style="88" customWidth="1"/>
+    <col min="7430" max="7430" width="11.33203125" style="88" customWidth="1"/>
+    <col min="7431" max="7433" width="11.5" style="88" customWidth="1"/>
+    <col min="7434" max="7434" width="18.5" style="88" customWidth="1"/>
+    <col min="7435" max="7681" width="11.5" style="88"/>
+    <col min="7682" max="7682" width="44.5" style="88" customWidth="1"/>
+    <col min="7683" max="7684" width="10.83203125" style="88" customWidth="1"/>
+    <col min="7685" max="7685" width="10.5" style="88" customWidth="1"/>
+    <col min="7686" max="7686" width="11.33203125" style="88" customWidth="1"/>
+    <col min="7687" max="7689" width="11.5" style="88" customWidth="1"/>
+    <col min="7690" max="7690" width="18.5" style="88" customWidth="1"/>
+    <col min="7691" max="7937" width="11.5" style="88"/>
+    <col min="7938" max="7938" width="44.5" style="88" customWidth="1"/>
+    <col min="7939" max="7940" width="10.83203125" style="88" customWidth="1"/>
+    <col min="7941" max="7941" width="10.5" style="88" customWidth="1"/>
+    <col min="7942" max="7942" width="11.33203125" style="88" customWidth="1"/>
+    <col min="7943" max="7945" width="11.5" style="88" customWidth="1"/>
+    <col min="7946" max="7946" width="18.5" style="88" customWidth="1"/>
+    <col min="7947" max="8193" width="11.5" style="88"/>
+    <col min="8194" max="8194" width="44.5" style="88" customWidth="1"/>
+    <col min="8195" max="8196" width="10.83203125" style="88" customWidth="1"/>
+    <col min="8197" max="8197" width="10.5" style="88" customWidth="1"/>
+    <col min="8198" max="8198" width="11.33203125" style="88" customWidth="1"/>
+    <col min="8199" max="8201" width="11.5" style="88" customWidth="1"/>
+    <col min="8202" max="8202" width="18.5" style="88" customWidth="1"/>
+    <col min="8203" max="8449" width="11.5" style="88"/>
+    <col min="8450" max="8450" width="44.5" style="88" customWidth="1"/>
+    <col min="8451" max="8452" width="10.83203125" style="88" customWidth="1"/>
+    <col min="8453" max="8453" width="10.5" style="88" customWidth="1"/>
+    <col min="8454" max="8454" width="11.33203125" style="88" customWidth="1"/>
+    <col min="8455" max="8457" width="11.5" style="88" customWidth="1"/>
+    <col min="8458" max="8458" width="18.5" style="88" customWidth="1"/>
+    <col min="8459" max="8705" width="11.5" style="88"/>
+    <col min="8706" max="8706" width="44.5" style="88" customWidth="1"/>
+    <col min="8707" max="8708" width="10.83203125" style="88" customWidth="1"/>
+    <col min="8709" max="8709" width="10.5" style="88" customWidth="1"/>
+    <col min="8710" max="8710" width="11.33203125" style="88" customWidth="1"/>
+    <col min="8711" max="8713" width="11.5" style="88" customWidth="1"/>
+    <col min="8714" max="8714" width="18.5" style="88" customWidth="1"/>
+    <col min="8715" max="8961" width="11.5" style="88"/>
+    <col min="8962" max="8962" width="44.5" style="88" customWidth="1"/>
+    <col min="8963" max="8964" width="10.83203125" style="88" customWidth="1"/>
+    <col min="8965" max="8965" width="10.5" style="88" customWidth="1"/>
+    <col min="8966" max="8966" width="11.33203125" style="88" customWidth="1"/>
+    <col min="8967" max="8969" width="11.5" style="88" customWidth="1"/>
+    <col min="8970" max="8970" width="18.5" style="88" customWidth="1"/>
+    <col min="8971" max="9217" width="11.5" style="88"/>
+    <col min="9218" max="9218" width="44.5" style="88" customWidth="1"/>
+    <col min="9219" max="9220" width="10.83203125" style="88" customWidth="1"/>
+    <col min="9221" max="9221" width="10.5" style="88" customWidth="1"/>
+    <col min="9222" max="9222" width="11.33203125" style="88" customWidth="1"/>
+    <col min="9223" max="9225" width="11.5" style="88" customWidth="1"/>
+    <col min="9226" max="9226" width="18.5" style="88" customWidth="1"/>
+    <col min="9227" max="9473" width="11.5" style="88"/>
+    <col min="9474" max="9474" width="44.5" style="88" customWidth="1"/>
+    <col min="9475" max="9476" width="10.83203125" style="88" customWidth="1"/>
+    <col min="9477" max="9477" width="10.5" style="88" customWidth="1"/>
+    <col min="9478" max="9478" width="11.33203125" style="88" customWidth="1"/>
+    <col min="9479" max="9481" width="11.5" style="88" customWidth="1"/>
+    <col min="9482" max="9482" width="18.5" style="88" customWidth="1"/>
+    <col min="9483" max="9729" width="11.5" style="88"/>
+    <col min="9730" max="9730" width="44.5" style="88" customWidth="1"/>
+    <col min="9731" max="9732" width="10.83203125" style="88" customWidth="1"/>
+    <col min="9733" max="9733" width="10.5" style="88" customWidth="1"/>
+    <col min="9734" max="9734" width="11.33203125" style="88" customWidth="1"/>
+    <col min="9735" max="9737" width="11.5" style="88" customWidth="1"/>
+    <col min="9738" max="9738" width="18.5" style="88" customWidth="1"/>
+    <col min="9739" max="9985" width="11.5" style="88"/>
+    <col min="9986" max="9986" width="44.5" style="88" customWidth="1"/>
+    <col min="9987" max="9988" width="10.83203125" style="88" customWidth="1"/>
+    <col min="9989" max="9989" width="10.5" style="88" customWidth="1"/>
+    <col min="9990" max="9990" width="11.33203125" style="88" customWidth="1"/>
+    <col min="9991" max="9993" width="11.5" style="88" customWidth="1"/>
+    <col min="9994" max="9994" width="18.5" style="88" customWidth="1"/>
+    <col min="9995" max="10241" width="11.5" style="88"/>
+    <col min="10242" max="10242" width="44.5" style="88" customWidth="1"/>
+    <col min="10243" max="10244" width="10.83203125" style="88" customWidth="1"/>
+    <col min="10245" max="10245" width="10.5" style="88" customWidth="1"/>
+    <col min="10246" max="10246" width="11.33203125" style="88" customWidth="1"/>
+    <col min="10247" max="10249" width="11.5" style="88" customWidth="1"/>
+    <col min="10250" max="10250" width="18.5" style="88" customWidth="1"/>
+    <col min="10251" max="10497" width="11.5" style="88"/>
+    <col min="10498" max="10498" width="44.5" style="88" customWidth="1"/>
+    <col min="10499" max="10500" width="10.83203125" style="88" customWidth="1"/>
+    <col min="10501" max="10501" width="10.5" style="88" customWidth="1"/>
+    <col min="10502" max="10502" width="11.33203125" style="88" customWidth="1"/>
+    <col min="10503" max="10505" width="11.5" style="88" customWidth="1"/>
+    <col min="10506" max="10506" width="18.5" style="88" customWidth="1"/>
+    <col min="10507" max="10753" width="11.5" style="88"/>
+    <col min="10754" max="10754" width="44.5" style="88" customWidth="1"/>
+    <col min="10755" max="10756" width="10.83203125" style="88" customWidth="1"/>
+    <col min="10757" max="10757" width="10.5" style="88" customWidth="1"/>
+    <col min="10758" max="10758" width="11.33203125" style="88" customWidth="1"/>
+    <col min="10759" max="10761" width="11.5" style="88" customWidth="1"/>
+    <col min="10762" max="10762" width="18.5" style="88" customWidth="1"/>
+    <col min="10763" max="11009" width="11.5" style="88"/>
+    <col min="11010" max="11010" width="44.5" style="88" customWidth="1"/>
+    <col min="11011" max="11012" width="10.83203125" style="88" customWidth="1"/>
+    <col min="11013" max="11013" width="10.5" style="88" customWidth="1"/>
+    <col min="11014" max="11014" width="11.33203125" style="88" customWidth="1"/>
+    <col min="11015" max="11017" width="11.5" style="88" customWidth="1"/>
+    <col min="11018" max="11018" width="18.5" style="88" customWidth="1"/>
+    <col min="11019" max="11265" width="11.5" style="88"/>
+    <col min="11266" max="11266" width="44.5" style="88" customWidth="1"/>
+    <col min="11267" max="11268" width="10.83203125" style="88" customWidth="1"/>
+    <col min="11269" max="11269" width="10.5" style="88" customWidth="1"/>
+    <col min="11270" max="11270" width="11.33203125" style="88" customWidth="1"/>
+    <col min="11271" max="11273" width="11.5" style="88" customWidth="1"/>
+    <col min="11274" max="11274" width="18.5" style="88" customWidth="1"/>
+    <col min="11275" max="11521" width="11.5" style="88"/>
+    <col min="11522" max="11522" width="44.5" style="88" customWidth="1"/>
+    <col min="11523" max="11524" width="10.83203125" style="88" customWidth="1"/>
+    <col min="11525" max="11525" width="10.5" style="88" customWidth="1"/>
+    <col min="11526" max="11526" width="11.33203125" style="88" customWidth="1"/>
+    <col min="11527" max="11529" width="11.5" style="88" customWidth="1"/>
+    <col min="11530" max="11530" width="18.5" style="88" customWidth="1"/>
+    <col min="11531" max="11777" width="11.5" style="88"/>
+    <col min="11778" max="11778" width="44.5" style="88" customWidth="1"/>
+    <col min="11779" max="11780" width="10.83203125" style="88" customWidth="1"/>
+    <col min="11781" max="11781" width="10.5" style="88" customWidth="1"/>
+    <col min="11782" max="11782" width="11.33203125" style="88" customWidth="1"/>
+    <col min="11783" max="11785" width="11.5" style="88" customWidth="1"/>
+    <col min="11786" max="11786" width="18.5" style="88" customWidth="1"/>
+    <col min="11787" max="12033" width="11.5" style="88"/>
+    <col min="12034" max="12034" width="44.5" style="88" customWidth="1"/>
+    <col min="12035" max="12036" width="10.83203125" style="88" customWidth="1"/>
+    <col min="12037" max="12037" width="10.5" style="88" customWidth="1"/>
+    <col min="12038" max="12038" width="11.33203125" style="88" customWidth="1"/>
+    <col min="12039" max="12041" width="11.5" style="88" customWidth="1"/>
+    <col min="12042" max="12042" width="18.5" style="88" customWidth="1"/>
+    <col min="12043" max="12289" width="11.5" style="88"/>
+    <col min="12290" max="12290" width="44.5" style="88" customWidth="1"/>
+    <col min="12291" max="12292" width="10.83203125" style="88" customWidth="1"/>
+    <col min="12293" max="12293" width="10.5" style="88" customWidth="1"/>
+    <col min="12294" max="12294" width="11.33203125" style="88" customWidth="1"/>
+    <col min="12295" max="12297" width="11.5" style="88" customWidth="1"/>
+    <col min="12298" max="12298" width="18.5" style="88" customWidth="1"/>
+    <col min="12299" max="12545" width="11.5" style="88"/>
+    <col min="12546" max="12546" width="44.5" style="88" customWidth="1"/>
+    <col min="12547" max="12548" width="10.83203125" style="88" customWidth="1"/>
+    <col min="12549" max="12549" width="10.5" style="88" customWidth="1"/>
+    <col min="12550" max="12550" width="11.33203125" style="88" customWidth="1"/>
+    <col min="12551" max="12553" width="11.5" style="88" customWidth="1"/>
+    <col min="12554" max="12554" width="18.5" style="88" customWidth="1"/>
+    <col min="12555" max="12801" width="11.5" style="88"/>
+    <col min="12802" max="12802" width="44.5" style="88" customWidth="1"/>
+    <col min="12803" max="12804" width="10.83203125" style="88" customWidth="1"/>
+    <col min="12805" max="12805" width="10.5" style="88" customWidth="1"/>
+    <col min="12806" max="12806" width="11.33203125" style="88" customWidth="1"/>
+    <col min="12807" max="12809" width="11.5" style="88" customWidth="1"/>
+    <col min="12810" max="12810" width="18.5" style="88" customWidth="1"/>
+    <col min="12811" max="13057" width="11.5" style="88"/>
+    <col min="13058" max="13058" width="44.5" style="88" customWidth="1"/>
+    <col min="13059" max="13060" width="10.83203125" style="88" customWidth="1"/>
+    <col min="13061" max="13061" width="10.5" style="88" customWidth="1"/>
+    <col min="13062" max="13062" width="11.33203125" style="88" customWidth="1"/>
+    <col min="13063" max="13065" width="11.5" style="88" customWidth="1"/>
+    <col min="13066" max="13066" width="18.5" style="88" customWidth="1"/>
+    <col min="13067" max="13313" width="11.5" style="88"/>
+    <col min="13314" max="13314" width="44.5" style="88" customWidth="1"/>
+    <col min="13315" max="13316" width="10.83203125" style="88" customWidth="1"/>
+    <col min="13317" max="13317" width="10.5" style="88" customWidth="1"/>
+    <col min="13318" max="13318" width="11.33203125" style="88" customWidth="1"/>
+    <col min="13319" max="13321" width="11.5" style="88" customWidth="1"/>
+    <col min="13322" max="13322" width="18.5" style="88" customWidth="1"/>
+    <col min="13323" max="13569" width="11.5" style="88"/>
+    <col min="13570" max="13570" width="44.5" style="88" customWidth="1"/>
+    <col min="13571" max="13572" width="10.83203125" style="88" customWidth="1"/>
+    <col min="13573" max="13573" width="10.5" style="88" customWidth="1"/>
+    <col min="13574" max="13574" width="11.33203125" style="88" customWidth="1"/>
+    <col min="13575" max="13577" width="11.5" style="88" customWidth="1"/>
+    <col min="13578" max="13578" width="18.5" style="88" customWidth="1"/>
+    <col min="13579" max="13825" width="11.5" style="88"/>
+    <col min="13826" max="13826" width="44.5" style="88" customWidth="1"/>
+    <col min="13827" max="13828" width="10.83203125" style="88" customWidth="1"/>
+    <col min="13829" max="13829" width="10.5" style="88" customWidth="1"/>
+    <col min="13830" max="13830" width="11.33203125" style="88" customWidth="1"/>
+    <col min="13831" max="13833" width="11.5" style="88" customWidth="1"/>
+    <col min="13834" max="13834" width="18.5" style="88" customWidth="1"/>
+    <col min="13835" max="14081" width="11.5" style="88"/>
+    <col min="14082" max="14082" width="44.5" style="88" customWidth="1"/>
+    <col min="14083" max="14084" width="10.83203125" style="88" customWidth="1"/>
+    <col min="14085" max="14085" width="10.5" style="88" customWidth="1"/>
+    <col min="14086" max="14086" width="11.33203125" style="88" customWidth="1"/>
+    <col min="14087" max="14089" width="11.5" style="88" customWidth="1"/>
+    <col min="14090" max="14090" width="18.5" style="88" customWidth="1"/>
+    <col min="14091" max="14337" width="11.5" style="88"/>
+    <col min="14338" max="14338" width="44.5" style="88" customWidth="1"/>
+    <col min="14339" max="14340" width="10.83203125" style="88" customWidth="1"/>
+    <col min="14341" max="14341" width="10.5" style="88" customWidth="1"/>
+    <col min="14342" max="14342" width="11.33203125" style="88" customWidth="1"/>
+    <col min="14343" max="14345" width="11.5" style="88" customWidth="1"/>
+    <col min="14346" max="14346" width="18.5" style="88" customWidth="1"/>
+    <col min="14347" max="14593" width="11.5" style="88"/>
+    <col min="14594" max="14594" width="44.5" style="88" customWidth="1"/>
+    <col min="14595" max="14596" width="10.83203125" style="88" customWidth="1"/>
+    <col min="14597" max="14597" width="10.5" style="88" customWidth="1"/>
+    <col min="14598" max="14598" width="11.33203125" style="88" customWidth="1"/>
+    <col min="14599" max="14601" width="11.5" style="88" customWidth="1"/>
+    <col min="14602" max="14602" width="18.5" style="88" customWidth="1"/>
+    <col min="14603" max="14849" width="11.5" style="88"/>
+    <col min="14850" max="14850" width="44.5" style="88" customWidth="1"/>
+    <col min="14851" max="14852" width="10.83203125" style="88" customWidth="1"/>
+    <col min="14853" max="14853" width="10.5" style="88" customWidth="1"/>
+    <col min="14854" max="14854" width="11.33203125" style="88" customWidth="1"/>
+    <col min="14855" max="14857" width="11.5" style="88" customWidth="1"/>
+    <col min="14858" max="14858" width="18.5" style="88" customWidth="1"/>
+    <col min="14859" max="15105" width="11.5" style="88"/>
+    <col min="15106" max="15106" width="44.5" style="88" customWidth="1"/>
+    <col min="15107" max="15108" width="10.83203125" style="88" customWidth="1"/>
+    <col min="15109" max="15109" width="10.5" style="88" customWidth="1"/>
+    <col min="15110" max="15110" width="11.33203125" style="88" customWidth="1"/>
+    <col min="15111" max="15113" width="11.5" style="88" customWidth="1"/>
+    <col min="15114" max="15114" width="18.5" style="88" customWidth="1"/>
+    <col min="15115" max="15361" width="11.5" style="88"/>
+    <col min="15362" max="15362" width="44.5" style="88" customWidth="1"/>
+    <col min="15363" max="15364" width="10.83203125" style="88" customWidth="1"/>
+    <col min="15365" max="15365" width="10.5" style="88" customWidth="1"/>
+    <col min="15366" max="15366" width="11.33203125" style="88" customWidth="1"/>
+    <col min="15367" max="15369" width="11.5" style="88" customWidth="1"/>
+    <col min="15370" max="15370" width="18.5" style="88" customWidth="1"/>
+    <col min="15371" max="15617" width="11.5" style="88"/>
+    <col min="15618" max="15618" width="44.5" style="88" customWidth="1"/>
+    <col min="15619" max="15620" width="10.83203125" style="88" customWidth="1"/>
+    <col min="15621" max="15621" width="10.5" style="88" customWidth="1"/>
+    <col min="15622" max="15622" width="11.33203125" style="88" customWidth="1"/>
+    <col min="15623" max="15625" width="11.5" style="88" customWidth="1"/>
+    <col min="15626" max="15626" width="18.5" style="88" customWidth="1"/>
+    <col min="15627" max="15873" width="11.5" style="88"/>
+    <col min="15874" max="15874" width="44.5" style="88" customWidth="1"/>
+    <col min="15875" max="15876" width="10.83203125" style="88" customWidth="1"/>
+    <col min="15877" max="15877" width="10.5" style="88" customWidth="1"/>
+    <col min="15878" max="15878" width="11.33203125" style="88" customWidth="1"/>
+    <col min="15879" max="15881" width="11.5" style="88" customWidth="1"/>
+    <col min="15882" max="15882" width="18.5" style="88" customWidth="1"/>
+    <col min="15883" max="16129" width="11.5" style="88"/>
+    <col min="16130" max="16130" width="44.5" style="88" customWidth="1"/>
+    <col min="16131" max="16132" width="10.83203125" style="88" customWidth="1"/>
+    <col min="16133" max="16133" width="10.5" style="88" customWidth="1"/>
+    <col min="16134" max="16134" width="11.33203125" style="88" customWidth="1"/>
+    <col min="16135" max="16137" width="11.5" style="88" customWidth="1"/>
+    <col min="16138" max="16138" width="18.5" style="88" customWidth="1"/>
+    <col min="16139" max="16384" width="11.5" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="86" customFormat="1" ht="16.5" customHeight="1">
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
       <c r="E1" s="87"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-    </row>
-    <row r="2" spans="1:11" s="86" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+    </row>
+    <row r="2" spans="1:11" s="86" customFormat="1" ht="13">
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-    </row>
-    <row r="3" spans="1:11" s="86" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+    </row>
+    <row r="3" spans="1:11" s="86" customFormat="1" ht="13">
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
       <c r="E3" s="87"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-    </row>
-    <row r="4" spans="1:11" s="86" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+    </row>
+    <row r="4" spans="1:11" s="86" customFormat="1" ht="13">
       <c r="C4" s="87"/>
       <c r="D4" s="87"/>
       <c r="E4" s="87"/>
@@ -3336,27 +3390,27 @@
       <c r="I4" s="87"/>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:11" s="86" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" s="86" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="193" t="s">
+    <row r="5" spans="1:11" s="86" customFormat="1" ht="13"/>
+    <row r="6" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="7" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="8" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="9" spans="1:11" s="86" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="10" spans="1:11" s="86" customFormat="1" ht="21.75" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14">
+      <c r="A11" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+    </row>
+    <row r="12" spans="1:11" ht="14">
       <c r="A12" s="89"/>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
@@ -3368,27 +3422,27 @@
       <c r="I12" s="89"/>
       <c r="J12" s="89"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="194" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="195" t="s">
+      <c r="C14" s="191"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="197" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="194"/>
-      <c r="B15" s="194" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="196"/>
+      <c r="B15" s="196" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="90">
@@ -3412,11 +3466,11 @@
       <c r="I15" s="90">
         <v>2017</v>
       </c>
-      <c r="J15" s="195" t="s">
+      <c r="J15" s="197" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="91" t="s">
         <v>39</v>
       </c>
@@ -3454,7 +3508,7 @@
       <c r="J16" s="94"/>
       <c r="K16" s="95"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="96">
         <v>2411</v>
       </c>
@@ -3484,7 +3538,7 @@
       </c>
       <c r="J17" s="99"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="96">
         <v>2420</v>
       </c>
@@ -3512,7 +3566,7 @@
       </c>
       <c r="J18" s="99"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="96">
         <v>2432</v>
       </c>
@@ -3540,7 +3594,7 @@
       </c>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="96">
         <v>6121</v>
       </c>
@@ -3562,7 +3616,7 @@
       </c>
       <c r="J20" s="99"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="96">
         <v>6139</v>
       </c>
@@ -3580,7 +3634,7 @@
       <c r="I21" s="98"/>
       <c r="J21" s="99"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="96">
         <v>6211</v>
       </c>
@@ -3610,7 +3664,7 @@
       </c>
       <c r="J22" s="99"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="96">
         <v>6212</v>
       </c>
@@ -3640,7 +3694,7 @@
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="96">
         <v>6214</v>
       </c>
@@ -3666,7 +3720,7 @@
       </c>
       <c r="J24" s="99"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="96">
         <v>6215</v>
       </c>
@@ -3696,7 +3750,7 @@
       </c>
       <c r="J25" s="99"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="96">
         <v>6226</v>
       </c>
@@ -3726,7 +3780,7 @@
       </c>
       <c r="J26" s="99"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="96">
         <v>6227</v>
       </c>
@@ -3756,7 +3810,7 @@
       </c>
       <c r="J27" s="99"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="96">
         <v>6229</v>
       </c>
@@ -3786,7 +3840,7 @@
       </c>
       <c r="J28" s="99"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="96">
         <v>6231</v>
       </c>
@@ -3812,7 +3866,7 @@
       </c>
       <c r="J29" s="99"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="96">
         <v>6264</v>
       </c>
@@ -3842,7 +3896,7 @@
       </c>
       <c r="J30" s="99"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="96">
         <v>6292</v>
       </c>
@@ -3872,7 +3926,7 @@
       </c>
       <c r="J31" s="99"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="96">
         <v>6299</v>
       </c>
@@ -3894,7 +3948,7 @@
       <c r="I32" s="98"/>
       <c r="J32" s="99"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="91" t="s">
         <v>32</v>
       </c>
@@ -3932,7 +3986,7 @@
       <c r="J33" s="94"/>
       <c r="K33" s="95"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="110">
         <v>2420</v>
       </c>
@@ -3962,7 +4016,7 @@
       </c>
       <c r="J34" s="99"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="110">
         <v>2449</v>
       </c>
@@ -3982,7 +4036,7 @@
       </c>
       <c r="J35" s="99"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="110">
         <v>6214</v>
       </c>
@@ -4012,7 +4066,7 @@
       </c>
       <c r="J36" s="99"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="110">
         <v>6219</v>
       </c>
@@ -4032,7 +4086,7 @@
       </c>
       <c r="J37" s="99"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="110">
         <v>6224</v>
       </c>
@@ -4063,7 +4117,7 @@
       <c r="J38" s="99"/>
       <c r="K38" s="95"/>
     </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="91" t="s">
         <v>27</v>
       </c>
@@ -4100,7 +4154,7 @@
       </c>
       <c r="J39" s="94"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="110">
         <v>2411</v>
       </c>
@@ -4130,7 +4184,7 @@
       </c>
       <c r="J40" s="99"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="110">
         <v>2420</v>
       </c>
@@ -4160,7 +4214,7 @@
       </c>
       <c r="J41" s="99"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="110">
         <v>2432</v>
       </c>
@@ -4190,7 +4244,7 @@
       </c>
       <c r="J42" s="112"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="110">
         <v>6211</v>
       </c>
@@ -4220,7 +4274,7 @@
       </c>
       <c r="J43" s="99"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="110">
         <v>6212</v>
       </c>
@@ -4250,7 +4304,7 @@
       </c>
       <c r="J44" s="99"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="110">
         <v>6214</v>
       </c>
@@ -4280,7 +4334,7 @@
       </c>
       <c r="J45" s="99"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="110">
         <v>6215</v>
       </c>
@@ -4310,7 +4364,7 @@
       </c>
       <c r="J46" s="99"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="110">
         <v>6231</v>
       </c>
@@ -4340,7 +4394,7 @@
       </c>
       <c r="J47" s="99"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="110">
         <v>6299</v>
       </c>
@@ -4362,7 +4416,7 @@
       </c>
       <c r="J48" s="99"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="91" t="s">
         <v>57</v>
       </c>
@@ -4399,7 +4453,7 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="110">
         <v>6299</v>
       </c>
@@ -4425,7 +4479,7 @@
       </c>
       <c r="J50" s="99"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="91" t="s">
         <v>59</v>
       </c>
@@ -4460,7 +4514,7 @@
       </c>
       <c r="J51" s="94"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="110">
         <v>2310</v>
       </c>
@@ -4484,7 +4538,7 @@
       <c r="I52" s="98"/>
       <c r="J52" s="99"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="110">
         <v>2330</v>
       </c>
@@ -4508,7 +4562,7 @@
       <c r="I53" s="98"/>
       <c r="J53" s="99"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="110">
         <v>2411</v>
       </c>
@@ -4532,7 +4586,7 @@
       <c r="I54" s="98"/>
       <c r="J54" s="99"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="110">
         <v>2449</v>
       </c>
@@ -4556,7 +4610,7 @@
       <c r="I55" s="98"/>
       <c r="J55" s="99"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="110">
         <v>6121</v>
       </c>
@@ -4580,7 +4634,7 @@
       <c r="I56" s="98"/>
       <c r="J56" s="99"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="110">
         <v>6219</v>
       </c>
@@ -4598,7 +4652,7 @@
       <c r="I57" s="98"/>
       <c r="J57" s="99"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="110">
         <v>6221</v>
       </c>
@@ -4622,7 +4676,7 @@
       <c r="I58" s="98"/>
       <c r="J58" s="99"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="110">
         <v>6222</v>
       </c>
@@ -4646,7 +4700,7 @@
       <c r="I59" s="98"/>
       <c r="J59" s="99"/>
     </row>
-    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="110">
         <v>6223</v>
       </c>
@@ -4670,7 +4724,7 @@
       <c r="I60" s="98"/>
       <c r="J60" s="99"/>
     </row>
-    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="110">
         <v>6225</v>
       </c>
@@ -4694,7 +4748,7 @@
       <c r="I61" s="98"/>
       <c r="J61" s="99"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="110">
         <v>6226</v>
       </c>
@@ -4718,7 +4772,7 @@
       <c r="I62" s="98"/>
       <c r="J62" s="99"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="110">
         <v>6229</v>
       </c>
@@ -4742,7 +4796,7 @@
       <c r="I63" s="98"/>
       <c r="J63" s="99"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="110">
         <v>6231</v>
       </c>
@@ -4766,7 +4820,7 @@
       <c r="I64" s="98"/>
       <c r="J64" s="99"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="110">
         <v>6232</v>
       </c>
@@ -4790,7 +4844,7 @@
       <c r="I65" s="98"/>
       <c r="J65" s="99"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="110">
         <v>6235</v>
       </c>
@@ -4814,7 +4868,7 @@
       <c r="I66" s="98"/>
       <c r="J66" s="99"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="110">
         <v>6299</v>
       </c>
@@ -4838,7 +4892,7 @@
       <c r="I67" s="98"/>
       <c r="J67" s="99"/>
     </row>
-    <row r="68" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="114" customFormat="1">
       <c r="A68" s="91" t="s">
         <v>19</v>
       </c>
@@ -4875,7 +4929,7 @@
       </c>
       <c r="J68" s="94"/>
     </row>
-    <row r="69" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="114" customFormat="1">
       <c r="A69" s="115">
         <v>2310</v>
       </c>
@@ -4897,7 +4951,7 @@
       </c>
       <c r="J69" s="116"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="115">
         <v>2411</v>
       </c>
@@ -4923,7 +4977,7 @@
       </c>
       <c r="J70" s="116"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="115">
         <v>6143</v>
       </c>
@@ -4943,7 +4997,7 @@
       </c>
       <c r="J71" s="116"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="115">
         <v>6212</v>
       </c>
@@ -4963,7 +5017,7 @@
       </c>
       <c r="J72" s="116"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="115">
         <v>6221</v>
       </c>
@@ -4993,7 +5047,7 @@
       </c>
       <c r="J73" s="99"/>
     </row>
-    <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="115">
         <v>6223</v>
       </c>
@@ -5017,7 +5071,7 @@
       </c>
       <c r="J74" s="99"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="115">
         <v>6224</v>
       </c>
@@ -5039,7 +5093,7 @@
       </c>
       <c r="J75" s="99"/>
     </row>
-    <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="115">
         <v>6225</v>
       </c>
@@ -5059,7 +5113,7 @@
       </c>
       <c r="J76" s="119"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="115">
         <v>6226</v>
       </c>
@@ -5081,7 +5135,7 @@
       </c>
       <c r="J77" s="119"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="110">
         <v>6229</v>
       </c>
@@ -5103,7 +5157,7 @@
       </c>
       <c r="J78" s="119"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="110">
         <v>6231</v>
       </c>
@@ -5125,7 +5179,7 @@
       </c>
       <c r="J79" s="119"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="110">
         <v>6271</v>
       </c>
@@ -5151,7 +5205,7 @@
       <c r="I80" s="98"/>
       <c r="J80" s="119"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="110">
         <v>6910</v>
       </c>
@@ -5171,7 +5225,7 @@
       <c r="I81" s="98"/>
       <c r="J81" s="119"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="91" t="s">
         <v>13</v>
       </c>
@@ -5208,7 +5262,7 @@
       </c>
       <c r="J82" s="93"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="110">
         <v>6292</v>
       </c>
@@ -5234,7 +5288,7 @@
       </c>
       <c r="J83" s="111"/>
     </row>
-    <row r="84" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="18">
       <c r="A84" s="91" t="s">
         <v>90</v>
       </c>
@@ -5271,7 +5325,7 @@
       </c>
       <c r="J84" s="143"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="110">
         <v>2420</v>
       </c>
@@ -5291,7 +5345,7 @@
       </c>
       <c r="J85" s="141"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="110">
         <v>6211</v>
       </c>
@@ -5311,7 +5365,7 @@
       </c>
       <c r="J86" s="141"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="110">
         <v>6212</v>
       </c>
@@ -5331,7 +5385,7 @@
       </c>
       <c r="J87" s="141"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="110">
         <v>6231</v>
       </c>
@@ -5351,7 +5405,7 @@
       </c>
       <c r="J88" s="141"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="110">
         <v>6292</v>
       </c>
@@ -5371,7 +5425,7 @@
       </c>
       <c r="J89" s="141"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="91" t="s">
         <v>74</v>
       </c>
@@ -5406,7 +5460,7 @@
       </c>
       <c r="J90" s="139"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" s="110">
         <v>6390</v>
       </c>
@@ -5428,7 +5482,7 @@
       <c r="I91" s="98"/>
       <c r="J91" s="98"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="91" t="s">
         <v>77</v>
       </c>
@@ -5463,7 +5517,7 @@
       </c>
       <c r="J92" s="123"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" s="110">
         <v>6619</v>
       </c>
@@ -5481,7 +5535,7 @@
       <c r="I93" s="122"/>
       <c r="J93" s="111"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="91" t="s">
         <v>80</v>
       </c>
@@ -5516,7 +5570,7 @@
       </c>
       <c r="J94" s="94"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" s="110">
         <v>2310</v>
       </c>
@@ -5540,7 +5594,7 @@
       <c r="I95" s="98"/>
       <c r="J95" s="98"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" s="110">
         <v>2348</v>
       </c>
@@ -5564,7 +5618,7 @@
       <c r="I96" s="98"/>
       <c r="J96" s="98"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" s="110">
         <v>2449</v>
       </c>
@@ -5588,7 +5642,7 @@
       <c r="I97" s="98"/>
       <c r="J97" s="98"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" s="91" t="s">
         <v>83</v>
       </c>
@@ -5620,7 +5674,7 @@
       </c>
       <c r="J98" s="94"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" s="110">
         <v>2310</v>
       </c>
@@ -5640,7 +5694,7 @@
       <c r="I99" s="98"/>
       <c r="J99" s="99"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" s="91" t="s">
         <v>12</v>
       </c>
@@ -5677,7 +5731,7 @@
       </c>
       <c r="J100" s="94"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" s="110">
         <v>2310</v>
       </c>
@@ -5697,7 +5751,7 @@
       </c>
       <c r="J101" s="99"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" s="110">
         <v>2330</v>
       </c>
@@ -5717,7 +5771,7 @@
       </c>
       <c r="J102" s="99"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" s="110">
         <v>6212</v>
       </c>
@@ -5735,7 +5789,7 @@
       </c>
       <c r="J103" s="99"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" s="110">
         <v>6221</v>
       </c>
@@ -5765,7 +5819,7 @@
       </c>
       <c r="J104" s="99"/>
     </row>
-    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="110">
         <v>6223</v>
       </c>
@@ -5795,7 +5849,7 @@
       </c>
       <c r="J105" s="99"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" s="110">
         <v>6224</v>
       </c>
@@ -5825,7 +5879,7 @@
       </c>
       <c r="J106" s="99"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="110">
         <v>6226</v>
       </c>
@@ -5853,7 +5907,7 @@
       <c r="I107" s="98"/>
       <c r="J107" s="99"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" s="110">
         <v>6229</v>
       </c>
@@ -5883,7 +5937,7 @@
       </c>
       <c r="J108" s="99"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" s="110">
         <v>6231</v>
       </c>
@@ -5911,7 +5965,7 @@
       <c r="I109" s="98"/>
       <c r="J109" s="99"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" s="110">
         <v>6271</v>
       </c>
@@ -5941,7 +5995,7 @@
       </c>
       <c r="J110" s="99"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" s="110">
         <v>6291</v>
       </c>
@@ -5971,7 +6025,7 @@
       </c>
       <c r="J111" s="99"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" s="110">
         <v>6292</v>
       </c>
@@ -5991,7 +6045,7 @@
       </c>
       <c r="J112" s="99"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="110">
         <v>6299</v>
       </c>
@@ -6009,7 +6063,7 @@
       </c>
       <c r="J113" s="99"/>
     </row>
-    <row r="114" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="91" t="s">
         <v>5</v>
       </c>
@@ -6046,7 +6100,7 @@
       </c>
       <c r="J114" s="94"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="110">
         <v>6231</v>
       </c>
@@ -6076,7 +6130,7 @@
       </c>
       <c r="J115" s="99"/>
     </row>
-    <row r="116" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="91" t="s">
         <v>86</v>
       </c>
@@ -6111,7 +6165,7 @@
       </c>
       <c r="J116" s="94"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="110">
         <v>2411</v>
       </c>
@@ -6135,7 +6189,7 @@
       <c r="I117" s="98"/>
       <c r="J117" s="99"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="110">
         <v>2420</v>
       </c>
@@ -6159,7 +6213,7 @@
       <c r="I118" s="98"/>
       <c r="J118" s="99"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11">
       <c r="A119" s="110">
         <v>6211</v>
       </c>
@@ -6183,7 +6237,7 @@
       <c r="I119" s="98"/>
       <c r="J119" s="99"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11">
       <c r="A120" s="110">
         <v>6212</v>
       </c>
@@ -6207,7 +6261,7 @@
       <c r="I120" s="98"/>
       <c r="J120" s="99"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11">
       <c r="A121" s="110">
         <v>6214</v>
       </c>
@@ -6231,7 +6285,7 @@
       <c r="I121" s="98"/>
       <c r="J121" s="99"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11">
       <c r="A122" s="110">
         <v>6215</v>
       </c>
@@ -6255,7 +6309,7 @@
       <c r="I122" s="98"/>
       <c r="J122" s="99"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11">
       <c r="A123" s="110">
         <v>6227</v>
       </c>
@@ -6279,7 +6333,7 @@
       <c r="I123" s="98"/>
       <c r="J123" s="99"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11">
       <c r="A124" s="110">
         <v>6231</v>
       </c>
@@ -6303,7 +6357,7 @@
       <c r="I124" s="98"/>
       <c r="J124" s="99"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11">
       <c r="A125" s="110">
         <v>6299</v>
       </c>
@@ -6327,7 +6381,7 @@
       <c r="I125" s="98"/>
       <c r="J125" s="99"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11">
       <c r="A126" s="91" t="s">
         <v>2</v>
       </c>
@@ -6364,7 +6418,7 @@
       </c>
       <c r="J126" s="94"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11">
       <c r="A127" s="110">
         <v>6423</v>
       </c>
@@ -6393,11 +6447,11 @@
       <c r="J127" s="99"/>
       <c r="K127" s="95"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="188" t="s">
+    <row r="128" spans="1:11">
+      <c r="A128" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="188"/>
+      <c r="B128" s="190"/>
       <c r="C128" s="93">
         <f>C126+C116+C114+C100+C98+C94+C90+C82+C68+C51+C49+C39+C33+C16</f>
         <v>1195993190</v>
@@ -6464,24 +6518,24 @@
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="42"/>
@@ -6490,7 +6544,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="42"/>
@@ -6499,7 +6553,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="42"/>
@@ -6508,7 +6562,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="42"/>
@@ -6517,38 +6571,38 @@
       <c r="H4" s="39"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="30" customHeight="1"/>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
       <c r="M6" s="37"/>
       <c r="N6" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="196" t="s">
+    <row r="8" spans="1:15" ht="35.25" customHeight="1">
+      <c r="A8" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
       <c r="N8" s="35"/>
       <c r="O8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="34"/>
       <c r="B9" s="33"/>
       <c r="C9" s="23"/>
@@ -6559,65 +6613,65 @@
       <c r="I9" s="29"/>
       <c r="N9" s="28"/>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="203" t="s">
+    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A10" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="205" t="s">
+      <c r="D10" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="197" t="s">
+      <c r="F10" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="197" t="s">
+      <c r="G10" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="197" t="s">
+      <c r="H10" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="209" t="s">
+      <c r="I10" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="210"/>
-      <c r="K10" s="211" t="s">
+      <c r="J10" s="212"/>
+      <c r="K10" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="197" t="s">
+      <c r="L10" s="199" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="197" t="s">
+      <c r="M10" s="199" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="204"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
+    <row r="11" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A11" s="206"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
       <c r="I11" s="45" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="46">
         <v>0.15</v>
       </c>
-      <c r="K11" s="212"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-    </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="K11" s="214"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+    </row>
+    <row r="12" spans="1:15" s="21" customFormat="1" ht="16">
       <c r="A12" s="145">
         <v>78011201574</v>
       </c>
@@ -6658,7 +6712,7 @@
       </c>
       <c r="M12" s="149"/>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="18" customFormat="1" ht="16">
       <c r="A13" s="152">
         <v>231100</v>
       </c>
@@ -6685,7 +6739,7 @@
       <c r="L13" s="156"/>
       <c r="M13" s="157"/>
     </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="18" customFormat="1" ht="16">
       <c r="A14" s="152">
         <v>242100</v>
       </c>
@@ -6709,7 +6763,7 @@
       <c r="L14" s="156"/>
       <c r="M14" s="157"/>
     </row>
-    <row r="15" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="26" customFormat="1" ht="16">
       <c r="A15" s="152">
         <v>244900</v>
       </c>
@@ -6733,7 +6787,7 @@
       <c r="L15" s="157"/>
       <c r="M15" s="157"/>
     </row>
-    <row r="16" spans="1:15" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="25" customFormat="1" ht="32">
       <c r="A16" s="162">
         <v>601100</v>
       </c>
@@ -6765,7 +6819,7 @@
       <c r="L16" s="157"/>
       <c r="M16" s="157"/>
     </row>
-    <row r="17" spans="1:13" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="144" customFormat="1" ht="16">
       <c r="A17" s="162">
         <v>601200</v>
       </c>
@@ -6798,7 +6852,7 @@
       <c r="L17" s="169"/>
       <c r="M17" s="169"/>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="32">
       <c r="A18" s="152">
         <v>601400</v>
       </c>
@@ -6829,7 +6883,7 @@
       <c r="L18" s="175"/>
       <c r="M18" s="157"/>
     </row>
-    <row r="19" spans="1:13" s="144" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="144" customFormat="1" ht="32">
       <c r="A19" s="162">
         <v>601500</v>
       </c>
@@ -6858,7 +6912,7 @@
       <c r="L19" s="169"/>
       <c r="M19" s="169"/>
     </row>
-    <row r="20" spans="1:13" s="144" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="144" customFormat="1" ht="32">
       <c r="A20" s="162">
         <v>611100</v>
       </c>
@@ -6887,7 +6941,7 @@
       <c r="L20" s="181"/>
       <c r="M20" s="169"/>
     </row>
-    <row r="21" spans="1:13" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="144" customFormat="1" ht="16">
       <c r="A21" s="162">
         <v>611200</v>
       </c>
@@ -6916,7 +6970,7 @@
       <c r="L21" s="169"/>
       <c r="M21" s="169"/>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="16">
       <c r="A22" s="152">
         <v>618300</v>
       </c>
@@ -6945,7 +6999,7 @@
       <c r="L22" s="157"/>
       <c r="M22" s="157"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="23" customFormat="1" ht="32">
       <c r="A23" s="162">
         <v>622190</v>
       </c>
@@ -6974,7 +7028,7 @@
       <c r="L23" s="169"/>
       <c r="M23" s="169"/>
     </row>
-    <row r="24" spans="1:13" s="177" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="177" customFormat="1" ht="16">
       <c r="A24" s="162">
         <v>629200</v>
       </c>
@@ -7003,7 +7057,7 @@
       <c r="L24" s="156"/>
       <c r="M24" s="156"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A25" s="53"/>
       <c r="B25" s="63"/>
       <c r="C25" s="54"/>
@@ -7026,7 +7080,7 @@
       <c r="L25" s="54"/>
       <c r="M25" s="54"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A26" s="185"/>
       <c r="B26" s="184" t="s">
         <v>108</v>
@@ -7053,7 +7107,7 @@
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" spans="1:13" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="19" customFormat="1" ht="12">
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="48"/>
@@ -7068,7 +7122,7 @@
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A28" s="53"/>
       <c r="B28" s="66"/>
       <c r="C28" s="54"/>
@@ -7083,7 +7137,7 @@
       <c r="L28" s="54"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A29" s="53"/>
       <c r="B29" s="66"/>
       <c r="C29" s="54"/>
@@ -7098,7 +7152,7 @@
       <c r="L29" s="134"/>
       <c r="M29" s="134"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A30" s="53"/>
       <c r="B30" s="66"/>
       <c r="C30" s="54"/>
@@ -7113,7 +7167,7 @@
       <c r="L30" s="134"/>
       <c r="M30" s="134"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A31" s="53"/>
       <c r="B31" s="66"/>
       <c r="C31" s="54"/>
@@ -7128,7 +7182,7 @@
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
     </row>
-    <row r="32" spans="1:13" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="23" customFormat="1" ht="12">
       <c r="A32" s="53"/>
       <c r="B32" s="66"/>
       <c r="C32" s="54"/>
@@ -7143,7 +7197,7 @@
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="21" customFormat="1" ht="12">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="48"/>
@@ -7158,7 +7212,7 @@
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A34" s="53"/>
       <c r="B34" s="66"/>
       <c r="C34" s="54"/>
@@ -7173,7 +7227,7 @@
       <c r="L34" s="54"/>
       <c r="M34" s="27"/>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A35" s="53"/>
       <c r="B35" s="66"/>
       <c r="C35" s="54"/>
@@ -7188,7 +7242,7 @@
       <c r="L35" s="56"/>
       <c r="M35" s="133"/>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A36" s="53"/>
       <c r="B36" s="66"/>
       <c r="C36" s="67"/>
@@ -7203,7 +7257,7 @@
       <c r="L36" s="56"/>
       <c r="M36" s="133"/>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A37" s="53"/>
       <c r="B37" s="66"/>
       <c r="C37" s="54"/>
@@ -7218,7 +7272,7 @@
       <c r="L37" s="54"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A38" s="53"/>
       <c r="B38" s="66"/>
       <c r="C38" s="54"/>
@@ -7233,7 +7287,7 @@
       <c r="L38" s="56"/>
       <c r="M38" s="133"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A39" s="53"/>
       <c r="B39" s="66"/>
       <c r="C39" s="54"/>
@@ -7248,7 +7302,7 @@
       <c r="L39" s="134"/>
       <c r="M39" s="134"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A40" s="53"/>
       <c r="B40" s="66"/>
       <c r="C40" s="54"/>
@@ -7263,7 +7317,7 @@
       <c r="L40" s="56"/>
       <c r="M40" s="133"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A41" s="53"/>
       <c r="B41" s="66"/>
       <c r="C41" s="54"/>
@@ -7278,7 +7332,7 @@
       <c r="L41" s="54"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="19" customFormat="1" ht="12">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="48"/>
@@ -7293,7 +7347,7 @@
       <c r="L42" s="51"/>
       <c r="M42" s="132"/>
     </row>
-    <row r="43" spans="1:13" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="19" customFormat="1" ht="12">
       <c r="A43" s="60"/>
       <c r="B43" s="66"/>
       <c r="C43" s="54"/>
@@ -7308,7 +7362,7 @@
       <c r="L43" s="56"/>
       <c r="M43" s="133"/>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A44" s="60"/>
       <c r="B44" s="66"/>
       <c r="C44" s="54"/>
@@ -7323,7 +7377,7 @@
       <c r="L44" s="56"/>
       <c r="M44" s="27"/>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A45" s="60"/>
       <c r="B45" s="66"/>
       <c r="C45" s="54"/>
@@ -7338,7 +7392,7 @@
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A46" s="60"/>
       <c r="B46" s="66"/>
       <c r="C46" s="54"/>
@@ -7353,7 +7407,7 @@
       <c r="L46" s="56"/>
       <c r="M46" s="56"/>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A47" s="53"/>
       <c r="B47" s="66"/>
       <c r="C47" s="54"/>
@@ -7368,7 +7422,7 @@
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A48" s="53"/>
       <c r="B48" s="66"/>
       <c r="C48" s="54"/>
@@ -7383,7 +7437,7 @@
       <c r="L48" s="27"/>
       <c r="M48" s="27"/>
     </row>
-    <row r="49" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A49" s="53"/>
       <c r="B49" s="66"/>
       <c r="C49" s="54"/>
@@ -7398,7 +7452,7 @@
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A50" s="53"/>
       <c r="B50" s="66"/>
       <c r="C50" s="54"/>
@@ -7413,7 +7467,7 @@
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A51" s="53"/>
       <c r="B51" s="66"/>
       <c r="C51" s="54"/>
@@ -7428,7 +7482,7 @@
       <c r="L51" s="134"/>
       <c r="M51" s="134"/>
     </row>
-    <row r="52" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A52" s="53"/>
       <c r="B52" s="66"/>
       <c r="C52" s="54"/>
@@ -7443,7 +7497,7 @@
       <c r="L52" s="27"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A53" s="53"/>
       <c r="B53" s="66"/>
       <c r="C53" s="54"/>
@@ -7458,7 +7512,7 @@
       <c r="L53" s="54"/>
       <c r="M53" s="54"/>
     </row>
-    <row r="54" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A54" s="47"/>
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
@@ -7473,7 +7527,7 @@
       <c r="L54" s="131"/>
       <c r="M54" s="50"/>
     </row>
-    <row r="55" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A55" s="53"/>
       <c r="B55" s="66"/>
       <c r="C55" s="54"/>
@@ -7488,7 +7542,7 @@
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
     </row>
-    <row r="56" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A56" s="53"/>
       <c r="B56" s="66"/>
       <c r="C56" s="54"/>
@@ -7503,7 +7557,7 @@
       <c r="L56" s="57"/>
       <c r="M56" s="57"/>
     </row>
-    <row r="57" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A57" s="53"/>
       <c r="B57" s="66"/>
       <c r="C57" s="54"/>
@@ -7518,7 +7572,7 @@
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
     </row>
-    <row r="58" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A58" s="53"/>
       <c r="B58" s="66"/>
       <c r="C58" s="54"/>
@@ -7533,7 +7587,7 @@
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
     </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
@@ -7548,7 +7602,7 @@
       <c r="L59" s="51"/>
       <c r="M59" s="51"/>
     </row>
-    <row r="60" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A60" s="53"/>
       <c r="B60" s="66"/>
       <c r="C60" s="54"/>
@@ -7563,7 +7617,7 @@
       <c r="L60" s="54"/>
       <c r="M60" s="54"/>
     </row>
-    <row r="61" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="48"/>
@@ -7579,7 +7633,7 @@
       <c r="M61" s="51"/>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A62" s="71"/>
       <c r="B62" s="66"/>
       <c r="C62" s="54"/>
@@ -7595,7 +7649,7 @@
       <c r="M62" s="54"/>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A63" s="71"/>
       <c r="B63" s="66"/>
       <c r="C63" s="54"/>
@@ -7611,7 +7665,7 @@
       <c r="M63" s="56"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A64" s="71"/>
       <c r="B64" s="66"/>
       <c r="C64" s="54"/>
@@ -7627,7 +7681,7 @@
       <c r="M64" s="56"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A65" s="72"/>
       <c r="B65" s="66"/>
       <c r="C65" s="54"/>
@@ -7642,7 +7696,7 @@
       <c r="L65" s="27"/>
       <c r="M65" s="27"/>
     </row>
-    <row r="66" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A66" s="53"/>
       <c r="B66" s="66"/>
       <c r="C66" s="54"/>
@@ -7657,7 +7711,7 @@
       <c r="L66" s="68"/>
       <c r="M66" s="68"/>
     </row>
-    <row r="67" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A67" s="53"/>
       <c r="B67" s="66"/>
       <c r="C67" s="54"/>
@@ -7672,7 +7726,7 @@
       <c r="L67" s="68"/>
       <c r="M67" s="68"/>
     </row>
-    <row r="68" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A68" s="53"/>
       <c r="B68" s="66"/>
       <c r="C68" s="54"/>
@@ -7687,7 +7741,7 @@
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
     </row>
-    <row r="69" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A69" s="60"/>
       <c r="B69" s="66"/>
       <c r="C69" s="54"/>
@@ -7702,7 +7756,7 @@
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
     </row>
-    <row r="70" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A70" s="53"/>
       <c r="B70" s="66"/>
       <c r="C70" s="54"/>
@@ -7717,7 +7771,7 @@
       <c r="L70" s="56"/>
       <c r="M70" s="56"/>
     </row>
-    <row r="71" spans="1:13" s="18" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="18" customFormat="1" ht="63" customHeight="1">
       <c r="A71" s="53"/>
       <c r="B71" s="66"/>
       <c r="C71" s="54"/>
@@ -7732,7 +7786,7 @@
       <c r="L71" s="27"/>
       <c r="M71" s="27"/>
     </row>
-    <row r="72" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A72" s="53"/>
       <c r="B72" s="66"/>
       <c r="C72" s="54"/>
@@ -7747,7 +7801,7 @@
       <c r="L72" s="56"/>
       <c r="M72" s="56"/>
     </row>
-    <row r="73" spans="1:13" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="21" customFormat="1" ht="12">
       <c r="A73" s="47"/>
       <c r="B73" s="47"/>
       <c r="C73" s="48"/>
@@ -7762,7 +7816,7 @@
       <c r="L73" s="51"/>
       <c r="M73" s="51"/>
     </row>
-    <row r="74" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A74" s="53"/>
       <c r="B74" s="66"/>
       <c r="C74" s="54"/>
@@ -7777,9 +7831,9 @@
       <c r="L74" s="27"/>
       <c r="M74" s="27"/>
     </row>
-    <row r="75" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A75" s="199"/>
-      <c r="B75" s="200"/>
+    <row r="75" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A75" s="201"/>
+      <c r="B75" s="202"/>
       <c r="C75" s="73"/>
       <c r="D75" s="81"/>
       <c r="E75" s="73"/>
@@ -7792,7 +7846,7 @@
       <c r="L75" s="73"/>
       <c r="M75" s="73"/>
     </row>
-    <row r="76" spans="1:13" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="19" customFormat="1" ht="12">
       <c r="A76" s="47"/>
       <c r="B76" s="47"/>
       <c r="C76" s="74"/>
@@ -7807,7 +7861,7 @@
       <c r="L76" s="76"/>
       <c r="M76" s="76"/>
     </row>
-    <row r="77" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A77" s="53"/>
       <c r="B77" s="66"/>
       <c r="C77" s="54"/>
@@ -7822,9 +7876,9 @@
       <c r="L77" s="27"/>
       <c r="M77" s="27"/>
     </row>
-    <row r="78" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A78" s="199"/>
-      <c r="B78" s="200"/>
+    <row r="78" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A78" s="201"/>
+      <c r="B78" s="202"/>
       <c r="C78" s="73"/>
       <c r="D78" s="81"/>
       <c r="E78" s="73"/>
@@ -7837,9 +7891,9 @@
       <c r="L78" s="73"/>
       <c r="M78" s="73"/>
     </row>
-    <row r="79" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A79" s="201"/>
-      <c r="B79" s="202"/>
+    <row r="79" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A79" s="203"/>
+      <c r="B79" s="204"/>
       <c r="C79" s="51"/>
       <c r="D79" s="51"/>
       <c r="E79" s="51"/>
@@ -7852,7 +7906,7 @@
       <c r="L79" s="51"/>
       <c r="M79" s="51"/>
     </row>
-    <row r="80" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="7" customFormat="1" ht="12">
       <c r="A80" s="16"/>
       <c r="B80" s="15"/>
       <c r="C80" s="14"/>
@@ -7866,7 +7920,7 @@
       </c>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="7" customFormat="1">
       <c r="A81" s="16"/>
       <c r="B81" s="15"/>
       <c r="C81" s="14"/>
@@ -7880,7 +7934,7 @@
       </c>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A82" s="16"/>
       <c r="B82" s="15"/>
       <c r="C82" s="14"/>
@@ -7892,7 +7946,7 @@
       <c r="I82" s="9"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A83" s="16"/>
       <c r="B83" s="15"/>
       <c r="C83" s="14"/>
@@ -7906,101 +7960,101 @@
       </c>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="I84">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="I86">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="I88">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11">
       <c r="I92">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11">
       <c r="I94" t="e">
         <f>SUM(I95:I105)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11">
       <c r="I95" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11">
       <c r="I96" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9">
       <c r="I97">
         <v>29500000</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9">
       <c r="I98" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9">
       <c r="I99" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9">
       <c r="I100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9">
       <c r="I101" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9">
       <c r="I102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:9">
       <c r="I103" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:9">
       <c r="I104" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:9">
       <c r="I105" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:9">
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:9">
       <c r="I107" s="2">
         <v>40000000</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:9">
       <c r="I108">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:9">
       <c r="H118" s="2">
         <f>SUM(H119)</f>
         <v>0</v>
@@ -8010,12 +8064,12 @@
         <v>1225269821</v>
       </c>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:9">
       <c r="I119">
         <v>1225269821</v>
       </c>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:9">
       <c r="H120" s="130">
         <f>H16+H32+H36+H46+H48+H70+H82+H84+H86+H88+H92+H94+H106+H108+H118</f>
         <v>2000000</v>
@@ -8059,32 +8113,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="42"/>
@@ -8093,7 +8147,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="42"/>
@@ -8102,7 +8156,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="42"/>
@@ -8111,7 +8165,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="42"/>
@@ -8120,38 +8174,38 @@
       <c r="H4" s="39"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="30" customHeight="1"/>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
       <c r="M6" s="37"/>
       <c r="N6" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="196" t="s">
+    <row r="8" spans="1:15" ht="35.25" customHeight="1">
+      <c r="A8" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
       <c r="N8" s="35"/>
       <c r="O8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="34"/>
       <c r="B9" s="33"/>
       <c r="C9" s="23"/>
@@ -8162,65 +8216,65 @@
       <c r="I9" s="29"/>
       <c r="N9" s="28"/>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="203" t="s">
+    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A10" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="205" t="s">
+      <c r="D10" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="197" t="s">
+      <c r="F10" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="197" t="s">
+      <c r="G10" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="197" t="s">
+      <c r="H10" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="209" t="s">
+      <c r="I10" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="210"/>
-      <c r="K10" s="211" t="s">
+      <c r="J10" s="212"/>
+      <c r="K10" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="197" t="s">
+      <c r="L10" s="199" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="197" t="s">
+      <c r="M10" s="199" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="204"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
+    <row r="11" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A11" s="206"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
       <c r="I11" s="45" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="46">
         <v>0.15</v>
       </c>
-      <c r="K11" s="212"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-    </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="K11" s="214"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+    </row>
+    <row r="12" spans="1:15" s="21" customFormat="1" ht="16">
       <c r="A12" s="145">
         <v>78011201574</v>
       </c>
@@ -8260,7 +8314,7 @@
       <c r="L12" s="149"/>
       <c r="M12" s="149"/>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="18" customFormat="1" ht="16">
       <c r="A13" s="152">
         <v>231100</v>
       </c>
@@ -8285,7 +8339,7 @@
       <c r="L13" s="156"/>
       <c r="M13" s="157"/>
     </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="18" customFormat="1" ht="32">
       <c r="A14" s="152">
         <v>241100</v>
       </c>
@@ -8308,7 +8362,7 @@
       <c r="L14" s="156"/>
       <c r="M14" s="157"/>
     </row>
-    <row r="15" spans="1:15" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="18" customFormat="1" ht="16">
       <c r="A15" s="152">
         <v>242100</v>
       </c>
@@ -8332,7 +8386,7 @@
       <c r="L15" s="156"/>
       <c r="M15" s="157"/>
     </row>
-    <row r="16" spans="1:15" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="26" customFormat="1" ht="16">
       <c r="A16" s="152">
         <v>244900</v>
       </c>
@@ -8354,7 +8408,7 @@
       <c r="L16" s="157"/>
       <c r="M16" s="157"/>
     </row>
-    <row r="17" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="25" customFormat="1" ht="32">
       <c r="A17" s="162">
         <v>601100</v>
       </c>
@@ -8384,7 +8438,7 @@
       <c r="L17" s="157"/>
       <c r="M17" s="157"/>
     </row>
-    <row r="18" spans="1:13" s="144" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="144" customFormat="1" ht="32">
       <c r="A18" s="162">
         <v>601200</v>
       </c>
@@ -8401,7 +8455,7 @@
       <c r="F18" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="213">
+      <c r="G18" s="188">
         <v>4500000</v>
       </c>
       <c r="H18" s="168">
@@ -8419,7 +8473,7 @@
       <c r="L18" s="169"/>
       <c r="M18" s="169"/>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="18" customFormat="1" ht="32">
       <c r="A19" s="152">
         <v>601400</v>
       </c>
@@ -8448,7 +8502,7 @@
       <c r="L19" s="175"/>
       <c r="M19" s="157"/>
     </row>
-    <row r="20" spans="1:13" s="144" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="144" customFormat="1" ht="32">
       <c r="A20" s="162">
         <v>601590</v>
       </c>
@@ -8477,7 +8531,7 @@
       <c r="L20" s="169"/>
       <c r="M20" s="169"/>
     </row>
-    <row r="21" spans="1:13" s="144" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="144" customFormat="1" ht="32">
       <c r="A21" s="162">
         <v>611100</v>
       </c>
@@ -8504,7 +8558,7 @@
       <c r="L21" s="181"/>
       <c r="M21" s="169"/>
     </row>
-    <row r="22" spans="1:13" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="144" customFormat="1" ht="16">
       <c r="A22" s="162">
         <v>611200</v>
       </c>
@@ -8533,7 +8587,7 @@
       <c r="L22" s="169"/>
       <c r="M22" s="169"/>
     </row>
-    <row r="23" spans="1:13" s="144" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="144" customFormat="1" ht="32">
       <c r="A23" s="162">
         <v>614790</v>
       </c>
@@ -8558,8 +8612,11 @@
       </c>
       <c r="L23" s="169"/>
       <c r="M23" s="169"/>
-    </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="144" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="18" customFormat="1" ht="16">
       <c r="A24" s="152">
         <v>618300</v>
       </c>
@@ -8588,7 +8645,7 @@
       <c r="L24" s="157"/>
       <c r="M24" s="157"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="23" customFormat="1" ht="16">
       <c r="A25" s="162">
         <v>622110</v>
       </c>
@@ -8617,7 +8674,7 @@
       <c r="L25" s="169"/>
       <c r="M25" s="169"/>
     </row>
-    <row r="26" spans="1:13" s="177" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="177" customFormat="1" ht="16">
       <c r="A26" s="162">
         <v>629200</v>
       </c>
@@ -8646,7 +8703,7 @@
       <c r="L26" s="156"/>
       <c r="M26" s="156"/>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="18" customFormat="1" ht="12">
       <c r="A27" s="53"/>
       <c r="B27" s="63"/>
       <c r="C27" s="54"/>
@@ -8669,7 +8726,7 @@
       <c r="L27" s="54"/>
       <c r="M27" s="54"/>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="18" customFormat="1" ht="12">
       <c r="A28" s="185"/>
       <c r="B28" s="184" t="s">
         <v>108</v>
@@ -8679,13 +8736,13 @@
         <v>26000000</v>
       </c>
       <c r="D28" s="187"/>
-      <c r="E28" s="214">
+      <c r="E28" s="189">
         <f>SUM(E13:E26)</f>
         <v>4500000</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="56"/>
-      <c r="H28" s="214">
+      <c r="H28" s="189">
         <f>C28-E28</f>
         <v>21500000</v>
       </c>
@@ -8700,7 +8757,7 @@
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="19" customFormat="1" ht="12">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="48"/>
@@ -8715,7 +8772,7 @@
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="18" customFormat="1" ht="12">
       <c r="A30" s="53"/>
       <c r="B30" s="66"/>
       <c r="C30" s="54"/>
@@ -8730,7 +8787,7 @@
       <c r="L30" s="54"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="18" customFormat="1" ht="12">
       <c r="A31" s="53"/>
       <c r="B31" s="66"/>
       <c r="C31" s="54"/>
@@ -8745,7 +8802,7 @@
       <c r="L31" s="134"/>
       <c r="M31" s="134"/>
     </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="18" customFormat="1" ht="12">
       <c r="A32" s="53"/>
       <c r="B32" s="66"/>
       <c r="C32" s="54"/>
@@ -8760,7 +8817,7 @@
       <c r="L32" s="134"/>
       <c r="M32" s="134"/>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A33" s="53"/>
       <c r="B33" s="66"/>
       <c r="C33" s="54"/>
@@ -8775,7 +8832,7 @@
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
     </row>
-    <row r="34" spans="1:13" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="23" customFormat="1" ht="12">
       <c r="A34" s="53"/>
       <c r="B34" s="66"/>
       <c r="C34" s="54"/>
@@ -8790,7 +8847,7 @@
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
     </row>
-    <row r="35" spans="1:13" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="21" customFormat="1" ht="12">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="48"/>
@@ -8805,7 +8862,7 @@
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A36" s="53"/>
       <c r="B36" s="66"/>
       <c r="C36" s="54"/>
@@ -8820,7 +8877,7 @@
       <c r="L36" s="54"/>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A37" s="53"/>
       <c r="B37" s="66"/>
       <c r="C37" s="54"/>
@@ -8835,7 +8892,7 @@
       <c r="L37" s="56"/>
       <c r="M37" s="133"/>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A38" s="53"/>
       <c r="B38" s="66"/>
       <c r="C38" s="67"/>
@@ -8850,7 +8907,7 @@
       <c r="L38" s="56"/>
       <c r="M38" s="133"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A39" s="53"/>
       <c r="B39" s="66"/>
       <c r="C39" s="54"/>
@@ -8865,7 +8922,7 @@
       <c r="L39" s="54"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A40" s="53"/>
       <c r="B40" s="66"/>
       <c r="C40" s="54"/>
@@ -8880,7 +8937,7 @@
       <c r="L40" s="56"/>
       <c r="M40" s="133"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A41" s="53"/>
       <c r="B41" s="66"/>
       <c r="C41" s="54"/>
@@ -8895,7 +8952,7 @@
       <c r="L41" s="134"/>
       <c r="M41" s="134"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A42" s="53"/>
       <c r="B42" s="66"/>
       <c r="C42" s="54"/>
@@ -8910,7 +8967,7 @@
       <c r="L42" s="56"/>
       <c r="M42" s="133"/>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A43" s="53"/>
       <c r="B43" s="66"/>
       <c r="C43" s="54"/>
@@ -8925,7 +8982,7 @@
       <c r="L43" s="54"/>
       <c r="M43" s="27"/>
     </row>
-    <row r="44" spans="1:13" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="19" customFormat="1" ht="12">
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="48"/>
@@ -8940,7 +8997,7 @@
       <c r="L44" s="51"/>
       <c r="M44" s="132"/>
     </row>
-    <row r="45" spans="1:13" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="12">
       <c r="A45" s="60"/>
       <c r="B45" s="66"/>
       <c r="C45" s="54"/>
@@ -8955,7 +9012,7 @@
       <c r="L45" s="56"/>
       <c r="M45" s="133"/>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A46" s="60"/>
       <c r="B46" s="66"/>
       <c r="C46" s="54"/>
@@ -8970,7 +9027,7 @@
       <c r="L46" s="56"/>
       <c r="M46" s="27"/>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A47" s="60"/>
       <c r="B47" s="66"/>
       <c r="C47" s="54"/>
@@ -8985,7 +9042,7 @@
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A48" s="60"/>
       <c r="B48" s="66"/>
       <c r="C48" s="54"/>
@@ -9000,7 +9057,7 @@
       <c r="L48" s="56"/>
       <c r="M48" s="56"/>
     </row>
-    <row r="49" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A49" s="53"/>
       <c r="B49" s="66"/>
       <c r="C49" s="54"/>
@@ -9015,7 +9072,7 @@
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A50" s="53"/>
       <c r="B50" s="66"/>
       <c r="C50" s="54"/>
@@ -9030,7 +9087,7 @@
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A51" s="53"/>
       <c r="B51" s="66"/>
       <c r="C51" s="54"/>
@@ -9045,7 +9102,7 @@
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A52" s="53"/>
       <c r="B52" s="66"/>
       <c r="C52" s="54"/>
@@ -9060,7 +9117,7 @@
       <c r="L52" s="27"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A53" s="53"/>
       <c r="B53" s="66"/>
       <c r="C53" s="54"/>
@@ -9075,7 +9132,7 @@
       <c r="L53" s="134"/>
       <c r="M53" s="134"/>
     </row>
-    <row r="54" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A54" s="53"/>
       <c r="B54" s="66"/>
       <c r="C54" s="54"/>
@@ -9090,7 +9147,7 @@
       <c r="L54" s="27"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A55" s="53"/>
       <c r="B55" s="66"/>
       <c r="C55" s="54"/>
@@ -9105,7 +9162,7 @@
       <c r="L55" s="54"/>
       <c r="M55" s="54"/>
     </row>
-    <row r="56" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="48"/>
@@ -9120,7 +9177,7 @@
       <c r="L56" s="131"/>
       <c r="M56" s="50"/>
     </row>
-    <row r="57" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A57" s="53"/>
       <c r="B57" s="66"/>
       <c r="C57" s="54"/>
@@ -9135,7 +9192,7 @@
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
     </row>
-    <row r="58" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A58" s="53"/>
       <c r="B58" s="66"/>
       <c r="C58" s="54"/>
@@ -9150,7 +9207,7 @@
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
     </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A59" s="53"/>
       <c r="B59" s="66"/>
       <c r="C59" s="54"/>
@@ -9165,7 +9222,7 @@
       <c r="L59" s="57"/>
       <c r="M59" s="57"/>
     </row>
-    <row r="60" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A60" s="53"/>
       <c r="B60" s="66"/>
       <c r="C60" s="54"/>
@@ -9180,7 +9237,7 @@
       <c r="L60" s="57"/>
       <c r="M60" s="57"/>
     </row>
-    <row r="61" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="48"/>
@@ -9195,7 +9252,7 @@
       <c r="L61" s="51"/>
       <c r="M61" s="51"/>
     </row>
-    <row r="62" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A62" s="53"/>
       <c r="B62" s="66"/>
       <c r="C62" s="54"/>
@@ -9210,7 +9267,7 @@
       <c r="L62" s="54"/>
       <c r="M62" s="54"/>
     </row>
-    <row r="63" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
@@ -9226,7 +9283,7 @@
       <c r="M63" s="51"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A64" s="71"/>
       <c r="B64" s="66"/>
       <c r="C64" s="54"/>
@@ -9242,7 +9299,7 @@
       <c r="M64" s="54"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A65" s="71"/>
       <c r="B65" s="66"/>
       <c r="C65" s="54"/>
@@ -9258,7 +9315,7 @@
       <c r="M65" s="56"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A66" s="71"/>
       <c r="B66" s="66"/>
       <c r="C66" s="54"/>
@@ -9274,7 +9331,7 @@
       <c r="M66" s="56"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A67" s="72"/>
       <c r="B67" s="66"/>
       <c r="C67" s="54"/>
@@ -9289,7 +9346,7 @@
       <c r="L67" s="27"/>
       <c r="M67" s="27"/>
     </row>
-    <row r="68" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A68" s="53"/>
       <c r="B68" s="66"/>
       <c r="C68" s="54"/>
@@ -9304,7 +9361,7 @@
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
     </row>
-    <row r="69" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A69" s="53"/>
       <c r="B69" s="66"/>
       <c r="C69" s="54"/>
@@ -9319,7 +9376,7 @@
       <c r="L69" s="68"/>
       <c r="M69" s="68"/>
     </row>
-    <row r="70" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A70" s="53"/>
       <c r="B70" s="66"/>
       <c r="C70" s="54"/>
@@ -9334,7 +9391,7 @@
       <c r="L70" s="68"/>
       <c r="M70" s="68"/>
     </row>
-    <row r="71" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A71" s="60"/>
       <c r="B71" s="66"/>
       <c r="C71" s="54"/>
@@ -9349,7 +9406,7 @@
       <c r="L71" s="54"/>
       <c r="M71" s="54"/>
     </row>
-    <row r="72" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A72" s="53"/>
       <c r="B72" s="66"/>
       <c r="C72" s="54"/>
@@ -9364,7 +9421,7 @@
       <c r="L72" s="56"/>
       <c r="M72" s="56"/>
     </row>
-    <row r="73" spans="1:14" s="18" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" s="18" customFormat="1" ht="63" customHeight="1">
       <c r="A73" s="53"/>
       <c r="B73" s="66"/>
       <c r="C73" s="54"/>
@@ -9379,7 +9436,7 @@
       <c r="L73" s="27"/>
       <c r="M73" s="27"/>
     </row>
-    <row r="74" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A74" s="53"/>
       <c r="B74" s="66"/>
       <c r="C74" s="54"/>
@@ -9394,7 +9451,7 @@
       <c r="L74" s="56"/>
       <c r="M74" s="56"/>
     </row>
-    <row r="75" spans="1:14" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="21" customFormat="1" ht="12">
       <c r="A75" s="47"/>
       <c r="B75" s="47"/>
       <c r="C75" s="48"/>
@@ -9409,7 +9466,7 @@
       <c r="L75" s="51"/>
       <c r="M75" s="51"/>
     </row>
-    <row r="76" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A76" s="53"/>
       <c r="B76" s="66"/>
       <c r="C76" s="54"/>
@@ -9424,9 +9481,9 @@
       <c r="L76" s="27"/>
       <c r="M76" s="27"/>
     </row>
-    <row r="77" spans="1:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A77" s="199"/>
-      <c r="B77" s="200"/>
+    <row r="77" spans="1:14" s="7" customFormat="1" ht="12">
+      <c r="A77" s="201"/>
+      <c r="B77" s="202"/>
       <c r="C77" s="73"/>
       <c r="D77" s="81"/>
       <c r="E77" s="73"/>
@@ -9439,7 +9496,7 @@
       <c r="L77" s="73"/>
       <c r="M77" s="73"/>
     </row>
-    <row r="78" spans="1:14" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" s="19" customFormat="1" ht="12">
       <c r="A78" s="47"/>
       <c r="B78" s="47"/>
       <c r="C78" s="74"/>
@@ -9454,7 +9511,7 @@
       <c r="L78" s="76"/>
       <c r="M78" s="76"/>
     </row>
-    <row r="79" spans="1:14" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="18" customFormat="1" ht="12">
       <c r="A79" s="53"/>
       <c r="B79" s="66"/>
       <c r="C79" s="54"/>
@@ -9469,9 +9526,9 @@
       <c r="L79" s="27"/>
       <c r="M79" s="27"/>
     </row>
-    <row r="80" spans="1:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A80" s="199"/>
-      <c r="B80" s="200"/>
+    <row r="80" spans="1:14" s="7" customFormat="1" ht="12">
+      <c r="A80" s="201"/>
+      <c r="B80" s="202"/>
       <c r="C80" s="73"/>
       <c r="D80" s="81"/>
       <c r="E80" s="73"/>
@@ -9484,9 +9541,9 @@
       <c r="L80" s="73"/>
       <c r="M80" s="73"/>
     </row>
-    <row r="81" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A81" s="201"/>
-      <c r="B81" s="202"/>
+    <row r="81" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A81" s="203"/>
+      <c r="B81" s="204"/>
       <c r="C81" s="51"/>
       <c r="D81" s="51"/>
       <c r="E81" s="51"/>
@@ -9499,7 +9556,7 @@
       <c r="L81" s="51"/>
       <c r="M81" s="51"/>
     </row>
-    <row r="82" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" s="7" customFormat="1" ht="12">
       <c r="A82" s="16"/>
       <c r="B82" s="15"/>
       <c r="C82" s="14"/>
@@ -9513,7 +9570,7 @@
       </c>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" s="7" customFormat="1">
       <c r="A83" s="16"/>
       <c r="B83" s="15"/>
       <c r="C83" s="14"/>
@@ -9527,7 +9584,7 @@
       </c>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" s="7" customFormat="1" ht="12">
       <c r="A84" s="16"/>
       <c r="B84" s="15"/>
       <c r="C84" s="14"/>
@@ -9539,7 +9596,7 @@
       <c r="I84" s="9"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" s="7" customFormat="1" ht="12">
       <c r="A85" s="16"/>
       <c r="B85" s="15"/>
       <c r="C85" s="14"/>
@@ -9553,101 +9610,101 @@
       </c>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="I86">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="I88">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="I90">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="I94">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="I96" t="e">
         <f>SUM(I97:I107)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9">
       <c r="I97" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9">
       <c r="I98" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9">
       <c r="I99">
         <v>29500000</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9">
       <c r="I100" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9">
       <c r="I101" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9">
       <c r="I102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:9">
       <c r="I103" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:9">
       <c r="I104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:9">
       <c r="I105" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:9">
       <c r="I106" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:9">
       <c r="I107" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:9">
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="9:9">
       <c r="I109" s="2">
         <v>40000000</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="9:9">
       <c r="I110">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:9">
       <c r="H120" s="2">
         <f>SUM(H121)</f>
         <v>0</v>
@@ -9657,12 +9714,12 @@
         <v>1225269821</v>
       </c>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:9">
       <c r="I121">
         <v>1225269821</v>
       </c>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:9">
       <c r="H122" s="130">
         <f>H17+H34+H38+H48+H50+H72+H84+H86+H88+H90+H94+H96+H108+H110+H120</f>
         <v>2000000</v>
@@ -9674,11 +9731,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="A10:A11"/>
@@ -9690,6 +9742,11 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.47244094488188981" bottom="0.51181102362204722" header="0.15748031496062992" footer="0.31496062992125984"/>
@@ -9707,7 +9764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9719,7 +9776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
